--- a/04-27-25 to 05-03-25 Milwaukee Schedule.xlsx
+++ b/04-27-25 to 05-03-25 Milwaukee Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y69"/>
+  <dimension ref="A1:Y70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -540,23 +540,43 @@
           <t> </t>
         </is>
       </c>
-      <c r="F4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Ian</t>
+        </is>
+      </c>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kim </t>
+        </is>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DJ </t>
+        </is>
+      </c>
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Katherine </t>
+        </is>
+      </c>
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr"/>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DJ </t>
+        </is>
+      </c>
       <c r="W4" t="inlineStr"/>
       <c r="X4" t="inlineStr"/>
       <c r="Y4" t="inlineStr"/>
@@ -571,23 +591,43 @@
           <t> </t>
         </is>
       </c>
-      <c r="F5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Katherine </t>
+        </is>
+      </c>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Katherine </t>
+        </is>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ian </t>
+        </is>
+      </c>
       <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DJ </t>
+        </is>
+      </c>
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr"/>
-      <c r="V5" t="inlineStr"/>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ian </t>
+        </is>
+      </c>
       <c r="W5" t="inlineStr"/>
       <c r="X5" t="inlineStr"/>
       <c r="Y5" t="inlineStr"/>
@@ -602,7 +642,11 @@
           <t> </t>
         </is>
       </c>
-      <c r="F6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DJ </t>
+        </is>
+      </c>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
@@ -610,7 +654,11 @@
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kim </t>
+        </is>
+      </c>
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr"/>
@@ -628,12 +676,12 @@
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kim </t>
+        </is>
+      </c>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
@@ -641,7 +689,11 @@
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Katherine </t>
+        </is>
+      </c>
       <c r="O7" t="inlineStr"/>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr"/>
@@ -656,11 +708,7 @@
     </row>
     <row r="8">
       <c r="A8" t="inlineStr"/>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>4:30 AM MEET OFFICE</t>
-        </is>
-      </c>
+      <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
@@ -668,43 +716,23 @@
           <t> </t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>5:15 AM MEET OFFICE</t>
-        </is>
-      </c>
+      <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>5:15 AM MEET WATERTOWN PLANK</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>6:15 AM MEET OFFICE</t>
-        </is>
-      </c>
+      <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>6:30 AM RACINE COURT(HWY 43 &amp; Y)</t>
-        </is>
-      </c>
+      <c r="R8" t="inlineStr"/>
       <c r="S8" t="inlineStr"/>
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="inlineStr"/>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">6:00 AM MEET RYAN RD PNR (HWY 100 &amp; 94) </t>
-        </is>
-      </c>
+      <c r="V8" t="inlineStr"/>
       <c r="W8" t="inlineStr"/>
       <c r="X8" t="inlineStr"/>
       <c r="Y8" t="inlineStr"/>
@@ -713,15 +741,19 @@
       <c r="A9" t="inlineStr"/>
       <c r="B9" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>4:30 AM MEET OFFICE</t>
         </is>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>5:15 AM MEET OFFICE</t>
         </is>
       </c>
       <c r="G9" t="inlineStr"/>
@@ -729,7 +761,7 @@
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>5:15 AM MEET WATERTOWN PLANK</t>
         </is>
       </c>
       <c r="K9" t="inlineStr"/>
@@ -737,7 +769,7 @@
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t>6:15 AM MEET OFFICE</t>
         </is>
       </c>
       <c r="O9" t="inlineStr"/>
@@ -745,7 +777,7 @@
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
         <is>
-          <t>SAME OWNER (ROOP) FOR ALL 3 STORES NOW</t>
+          <t>6:30 AM RACINE COURT(HWY 43 &amp; Y)</t>
         </is>
       </c>
       <c r="S9" t="inlineStr"/>
@@ -753,7 +785,7 @@
       <c r="U9" t="inlineStr"/>
       <c r="V9" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t xml:space="preserve">6:00 AM MEET RYAN RD PNR (HWY 100 &amp; 94) </t>
         </is>
       </c>
       <c r="W9" t="inlineStr"/>
@@ -764,7 +796,7 @@
       <c r="A10" t="inlineStr"/>
       <c r="B10" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
@@ -772,7 +804,7 @@
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="G10" t="inlineStr"/>
@@ -780,7 +812,7 @@
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>6:30 AM START</t>
         </is>
       </c>
       <c r="K10" t="inlineStr"/>
@@ -788,7 +820,7 @@
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="O10" t="inlineStr"/>
@@ -796,7 +828,7 @@
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t>SAME OWNER (ROOP) FOR ALL 3 STORES NOW</t>
         </is>
       </c>
       <c r="S10" t="inlineStr"/>
@@ -804,7 +836,7 @@
       <c r="U10" t="inlineStr"/>
       <c r="V10" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>6:30 AM START</t>
         </is>
       </c>
       <c r="W10" t="inlineStr"/>
@@ -815,7 +847,7 @@
       <c r="A11" t="inlineStr"/>
       <c r="B11" t="inlineStr">
         <is>
-          <t>MILLER &amp; SONS SUPERMARKET, MT HOREB</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="C11" t="inlineStr"/>
@@ -823,7 +855,7 @@
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
-          <t>PIGGLY WIGGLY #077, WATERTOWN</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="G11" t="inlineStr"/>
@@ -831,7 +863,7 @@
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr">
         <is>
-          <t>FESTIVAL #2708, OSHKOSH - LIFO</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="K11" t="inlineStr"/>
@@ -839,7 +871,7 @@
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr">
         <is>
-          <t>LAKE MILLS MARKET - LIFO</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="O11" t="inlineStr"/>
@@ -847,7 +879,7 @@
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="S11" t="inlineStr"/>
@@ -855,7 +887,7 @@
       <c r="U11" t="inlineStr"/>
       <c r="V11" t="inlineStr">
         <is>
-          <t>FESTIVAL #2711, SOMERS - LIFO</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="W11" t="inlineStr"/>
@@ -866,7 +898,7 @@
       <c r="A12" t="inlineStr"/>
       <c r="B12" t="inlineStr">
         <is>
-          <t>1845 SPRINGDALE ST</t>
+          <t>MILLER &amp; SONS SUPERMARKET, MT HOREB</t>
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
@@ -874,7 +906,7 @@
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
-          <t>1330 MEMORIAL DR</t>
+          <t>PIGGLY WIGGLY #077, WATERTOWN</t>
         </is>
       </c>
       <c r="G12" t="inlineStr"/>
@@ -882,7 +914,7 @@
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr">
         <is>
-          <t>2415 WESTOWNE AVE</t>
+          <t>FESTIVAL #2708, OSHKOSH - LIFO</t>
         </is>
       </c>
       <c r="K12" t="inlineStr"/>
@@ -890,7 +922,7 @@
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr">
         <is>
-          <t>375 W TYRANENA PARK RD</t>
+          <t>LAKE MILLS MARKET - LIFO</t>
         </is>
       </c>
       <c r="O12" t="inlineStr"/>
@@ -898,7 +930,7 @@
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
         <is>
-          <t>KANSASVILLE CITGO QUICK MART, KANSASVILLE</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="S12" t="inlineStr"/>
@@ -906,7 +938,7 @@
       <c r="U12" t="inlineStr"/>
       <c r="V12" t="inlineStr">
         <is>
-          <t>6000 31ST ST</t>
+          <t>FESTIVAL #2711, SOMERS - LIFO</t>
         </is>
       </c>
       <c r="W12" t="inlineStr"/>
@@ -917,7 +949,7 @@
       <c r="A13" t="inlineStr"/>
       <c r="B13" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/zSVBPqJx7dR2</t>
+          <t>1845 SPRINGDALE ST</t>
         </is>
       </c>
       <c r="C13" t="inlineStr"/>
@@ -925,7 +957,7 @@
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/MeUw1KTwPtx</t>
+          <t>1330 MEMORIAL DR</t>
         </is>
       </c>
       <c r="G13" t="inlineStr"/>
@@ -933,7 +965,7 @@
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/SYenrFArvdC2</t>
+          <t>2415 WESTOWNE AVE</t>
         </is>
       </c>
       <c r="K13" t="inlineStr"/>
@@ -941,7 +973,7 @@
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/cfS4PK9kPnv2ivfa8</t>
+          <t>375 W TYRANENA PARK RD</t>
         </is>
       </c>
       <c r="O13" t="inlineStr"/>
@@ -949,7 +981,7 @@
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
         <is>
-          <t>23010 DURAND AVE</t>
+          <t>KANSASVILLE CITGO QUICK MART, KANSASVILLE</t>
         </is>
       </c>
       <c r="S13" t="inlineStr"/>
@@ -957,7 +989,7 @@
       <c r="U13" t="inlineStr"/>
       <c r="V13" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/iRwyhRYcWJk</t>
+          <t>6000 31ST ST</t>
         </is>
       </c>
       <c r="W13" t="inlineStr"/>
@@ -966,21 +998,33 @@
     </row>
     <row r="14">
       <c r="A14" t="inlineStr"/>
-      <c r="B14" t="inlineStr"/>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/zSVBPqJx7dR2</t>
+        </is>
+      </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/MeUw1KTwPtx</t>
+        </is>
+      </c>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/SYenrFArvdC2</t>
+        </is>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr">
         <is>
-          <t>SODA IS BROKEN OUT FROM GROCERY</t>
+          <t>https://goo.gl/maps/cfS4PK9kPnv2ivfa8</t>
         </is>
       </c>
       <c r="O14" t="inlineStr"/>
@@ -988,254 +1032,212 @@
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/QZs8ZSjv9eL2</t>
+          <t>23010 DURAND AVE</t>
         </is>
       </c>
       <c r="S14" t="inlineStr"/>
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="inlineStr"/>
-      <c r="V14" t="inlineStr"/>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/iRwyhRYcWJk</t>
+        </is>
+      </c>
       <c r="W14" t="inlineStr"/>
       <c r="X14" t="inlineStr"/>
       <c r="Y14" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Sarah</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="A15" t="inlineStr"/>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>Driver,
-Altima, Equip</t>
-        </is>
-      </c>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>@ Store,
-White Camry, Equip</t>
-        </is>
-      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>SODA IS BROKEN OUT FROM GROCERY</t>
+        </is>
+      </c>
       <c r="O15" t="inlineStr"/>
       <c r="P15" t="inlineStr"/>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
         <is>
-          <t xml:space="preserve">TO FOLLOW   </t>
+          <t>https://goo.gl/maps/QZs8ZSjv9eL2</t>
         </is>
       </c>
       <c r="S15" t="inlineStr"/>
       <c r="T15" t="inlineStr"/>
-      <c r="U15" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="V15" t="inlineStr">
-        <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="W15" t="inlineStr">
-        <is>
-          <t>@ Store,
-Equip</t>
-        </is>
-      </c>
+      <c r="U15" t="inlineStr"/>
+      <c r="V15" t="inlineStr"/>
+      <c r="W15" t="inlineStr"/>
       <c r="X15" t="inlineStr"/>
       <c r="Y15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>DJ</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Driver,
-Altima</t>
+          <t>@ Store, Equip</t>
         </is>
       </c>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Brenda</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr"/>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Driver,
+Altima, Equip</t>
+        </is>
+      </c>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Caitlin</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr"/>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>@ Store,
+White Camry, Equip</t>
+        </is>
+      </c>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="inlineStr"/>
+      <c r="O16" t="inlineStr"/>
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t xml:space="preserve">TO FOLLOW   </t>
         </is>
       </c>
       <c r="S16" t="inlineStr"/>
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>Brenda</t>
-        </is>
-      </c>
-      <c r="W16" t="inlineStr"/>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>@ Store,
+Equip</t>
+        </is>
+      </c>
       <c r="X16" t="inlineStr"/>
       <c r="Y16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr"/>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Driver,
+Altima</t>
+        </is>
+      </c>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Carlie</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>Driver,
-Red Camry</t>
-        </is>
-      </c>
+          <t>Brenda</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Carlie</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>Driver,
-Red Camry</t>
-        </is>
-      </c>
+          <t>Caitlin</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>Cynthia</t>
-        </is>
-      </c>
-      <c r="O17" t="inlineStr"/>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
         <is>
-          <t>TWIN LAKES CITGO, TWIN LAKES</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="S17" t="inlineStr"/>
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>Caitlin</t>
+          <t>Brenda</t>
         </is>
       </c>
       <c r="W17" t="inlineStr"/>
@@ -1245,48 +1247,58 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Lexi</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr"/>
+          <t>Carlie</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Driver,
+Red Camry</t>
+        </is>
+      </c>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Cynthia</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr"/>
+          <t>Carlie</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>Driver,
+Red Camry</t>
+        </is>
+      </c>
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>Greg</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="O18" t="inlineStr"/>
@@ -1294,124 +1306,110 @@
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
         <is>
-          <t>410 N LAKE AVE</t>
+          <t>TWIN LAKES CITGO, TWIN LAKES</t>
         </is>
       </c>
       <c r="S18" t="inlineStr"/>
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>Carlie</t>
-        </is>
-      </c>
-      <c r="W18" t="inlineStr">
-        <is>
-          <t>Driver,
-Red Camry</t>
-        </is>
-      </c>
+          <t>Caitlin</t>
+        </is>
+      </c>
+      <c r="W18" t="inlineStr"/>
       <c r="X18" t="inlineStr"/>
       <c r="Y18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Brianna</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Sonia</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Lexi</t>
         </is>
       </c>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>Driver,
-Sante Fe</t>
-        </is>
-      </c>
+          <t>Cynthia</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>Jerry D</t>
-        </is>
-      </c>
-      <c r="O19" t="inlineStr">
-        <is>
-          <t>Driver,
-Red Van</t>
-        </is>
-      </c>
+          <t>Greg</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr"/>
       <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/k9s2GwpMbH32</t>
+          <t>410 N LAKE AVE</t>
         </is>
       </c>
       <c r="S19" t="inlineStr"/>
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>Greg</t>
-        </is>
-      </c>
-      <c r="W19" t="inlineStr"/>
+          <t>Carlie</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>Driver,
+Red Camry</t>
+        </is>
+      </c>
       <c r="X19" t="inlineStr"/>
       <c r="Y19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Brianna</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1422,155 +1420,152 @@
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>Driver,
+Sante Fe</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
           <t>Jerry D</t>
         </is>
       </c>
-      <c r="K20" t="inlineStr">
+      <c r="O20" t="inlineStr">
         <is>
           <t>Driver,
 Red Van</t>
         </is>
       </c>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>5)</t>
-        </is>
-      </c>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>Monica</t>
-        </is>
-      </c>
-      <c r="O20" t="inlineStr"/>
       <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
         <is>
-          <t xml:space="preserve">TO FOLLOW   </t>
+          <t>https://goo.gl/maps/k9s2GwpMbH32</t>
         </is>
       </c>
       <c r="S20" t="inlineStr"/>
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr">
         <is>
+          <t>5)</t>
+        </is>
+      </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>Greg</t>
+        </is>
+      </c>
+      <c r="W20" t="inlineStr"/>
+      <c r="X20" t="inlineStr"/>
+      <c r="Y20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
           <t>6)</t>
         </is>
       </c>
-      <c r="V20" t="inlineStr">
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Eva</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>6)</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Sydney</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>6)</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
         <is>
           <t>Jerry D</t>
         </is>
       </c>
-      <c r="W20" t="inlineStr">
+      <c r="K21" t="inlineStr">
         <is>
           <t>Driver,
 Red Van</t>
         </is>
       </c>
-      <c r="X20" t="inlineStr"/>
-      <c r="Y20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>7)</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Evelin</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>7)</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>Brianna</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>7)</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>Justin Learned</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>Angela</t>
-        </is>
-      </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Monica</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr"/>
       <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t xml:space="preserve">TO FOLLOW   </t>
         </is>
       </c>
       <c r="S21" t="inlineStr"/>
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="W21" t="inlineStr">
         <is>
           <t>Driver,
-White Camry</t>
+Red Van</t>
         </is>
       </c>
       <c r="X21" t="inlineStr"/>
@@ -1579,12 +1574,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Evelin</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1593,30 +1588,42 @@
         </is>
       </c>
       <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>7)</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Brianna</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Lexi</t>
+          <t>Justin Learned</t>
         </is>
       </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>Anisha</t>
+          <t>Angela</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
@@ -1628,29 +1635,46 @@
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
         <is>
-          <t>SALEM MINI MART, SALEM LAKES</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="S22" t="inlineStr"/>
       <c r="T22" t="inlineStr"/>
       <c r="U22" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>Lexi</t>
-        </is>
-      </c>
-      <c r="W22" t="inlineStr"/>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>Driver,
+White Camry</t>
+        </is>
+      </c>
       <c r="X22" t="inlineStr"/>
       <c r="Y22" t="inlineStr"/>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr"/>
-      <c r="B23" t="inlineStr"/>
-      <c r="C23" t="inlineStr"/>
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>8)</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Qiana</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr"/>
@@ -1658,24 +1682,24 @@
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Lexi</t>
         </is>
       </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>Evelin</t>
+          <t>Anisha</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
@@ -1687,19 +1711,19 @@
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
         <is>
-          <t>8246 ANTIOCH RD</t>
+          <t>SALEM MINI MART, SALEM LAKES</t>
         </is>
       </c>
       <c r="S23" t="inlineStr"/>
       <c r="T23" t="inlineStr"/>
       <c r="U23" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Lexi</t>
         </is>
       </c>
       <c r="W23" t="inlineStr"/>
@@ -1712,33 +1736,29 @@
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>5:15 AM MEET OFFICE</t>
-        </is>
-      </c>
+      <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Evelin</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
@@ -1750,19 +1770,19 @@
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/ZEqzzGe3bVPyYJ6BA</t>
+          <t>8246 ANTIOCH RD</t>
         </is>
       </c>
       <c r="S24" t="inlineStr"/>
       <c r="T24" t="inlineStr"/>
       <c r="U24" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>NasZire</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="W24" t="inlineStr"/>
@@ -1777,31 +1797,31 @@
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>5:15 AM MEET OFFICE</t>
         </is>
       </c>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>NasZire</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>Nate</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
@@ -1811,17 +1831,21 @@
       </c>
       <c r="P25" t="inlineStr"/>
       <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr"/>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>https://maps.app.goo.gl/ZEqzzGe3bVPyYJ6BA</t>
+        </is>
+      </c>
       <c r="S25" t="inlineStr"/>
       <c r="T25" t="inlineStr"/>
       <c r="U25" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>NasZire</t>
         </is>
       </c>
       <c r="W25" t="inlineStr"/>
@@ -1836,51 +1860,51 @@
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Pamela</t>
+          <t>NasZire</t>
         </is>
       </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr"/>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>10)</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>Nate</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="R26" t="inlineStr">
-        <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="S26" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+      <c r="Q26" t="inlineStr"/>
+      <c r="R26" t="inlineStr"/>
+      <c r="S26" t="inlineStr"/>
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="W26" t="inlineStr"/>
@@ -1895,19 +1919,19 @@
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr">
         <is>
-          <t>KOHN'S FILLING STATION, KEWASKUM</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Pamela</t>
         </is>
       </c>
       <c r="K27" t="inlineStr"/>
@@ -1918,29 +1942,28 @@
       <c r="P27" t="inlineStr"/>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>Driver,
-Optima</t>
+          <t>Equip</t>
         </is>
       </c>
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="W27" t="inlineStr"/>
@@ -1955,58 +1978,55 @@
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr">
         <is>
-          <t>890 FOND DU LAC AVE</t>
+          <t>KOHN'S FILLING STATION, KEWASKUM</t>
         </is>
       </c>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr">
         <is>
-          <t>14)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr"/>
-      <c r="N28" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr"/>
       <c r="P28" t="inlineStr"/>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>Paul</t>
-        </is>
-      </c>
-      <c r="S28" t="inlineStr"/>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>Driver,
+Optima</t>
+        </is>
+      </c>
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="inlineStr">
         <is>
-          <t>14)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>Brianna</t>
-        </is>
-      </c>
-      <c r="W28" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Sydney</t>
+        </is>
+      </c>
+      <c r="W28" t="inlineStr"/>
       <c r="X28" t="inlineStr"/>
       <c r="Y28" t="inlineStr"/>
     </row>
@@ -2018,19 +2038,19 @@
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/CJnRNDyortw</t>
+          <t>890 FOND DU LAC AVE</t>
         </is>
       </c>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr">
         <is>
-          <t>15)</t>
+          <t>14)</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="K29" t="inlineStr"/>
@@ -2038,18 +2058,38 @@
       <c r="M29" t="inlineStr"/>
       <c r="N29" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="O29" t="inlineStr"/>
       <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr"/>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>Paul</t>
+        </is>
+      </c>
       <c r="S29" t="inlineStr"/>
       <c r="T29" t="inlineStr"/>
-      <c r="U29" t="inlineStr"/>
-      <c r="V29" t="inlineStr"/>
-      <c r="W29" t="inlineStr"/>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>14)</t>
+        </is>
+      </c>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>Brianna</t>
+        </is>
+      </c>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X29" t="inlineStr"/>
       <c r="Y29" t="inlineStr"/>
     </row>
@@ -2061,19 +2101,27 @@
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr">
         <is>
-          <t>TO FOLLOW</t>
+          <t>https://goo.gl/maps/CJnRNDyortw</t>
         </is>
       </c>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>15)</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>Sydney</t>
+        </is>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1060, WEST ALLIS</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="O30" t="inlineStr"/>
@@ -2096,7 +2144,7 @@
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>TO FOLLOW</t>
         </is>
       </c>
       <c r="G31" t="inlineStr"/>
@@ -2108,25 +2156,17 @@
       <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr">
         <is>
-          <t>2424 S 90TH ST</t>
+          <t>AURORA OUTPATIENT RX #1060, WEST ALLIS</t>
         </is>
       </c>
       <c r="O31" t="inlineStr"/>
       <c r="P31" t="inlineStr"/>
       <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr">
-        <is>
-          <t>4:45 AM MEET WATERTOWN PLANK</t>
-        </is>
-      </c>
+      <c r="R31" t="inlineStr"/>
       <c r="S31" t="inlineStr"/>
       <c r="T31" t="inlineStr"/>
       <c r="U31" t="inlineStr"/>
-      <c r="V31" t="inlineStr">
-        <is>
-          <t>5:30 AM MEET RYAN RD PNR (HWY 100 &amp; 94)</t>
-        </is>
-      </c>
+      <c r="V31" t="inlineStr"/>
       <c r="W31" t="inlineStr"/>
       <c r="X31" t="inlineStr"/>
       <c r="Y31" t="inlineStr"/>
@@ -2139,23 +2179,19 @@
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr">
         <is>
-          <t>KOHN'S FILLING STATION 259, CAMPBELLSPORT</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>7:00 AM START</t>
-        </is>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/sV4GyYybfkL2</t>
+          <t>2424 S 90TH ST</t>
         </is>
       </c>
       <c r="O32" t="inlineStr"/>
@@ -2163,7 +2199,7 @@
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>4:45 AM MEET WATERTOWN PLANK</t>
         </is>
       </c>
       <c r="S32" t="inlineStr"/>
@@ -2171,7 +2207,7 @@
       <c r="U32" t="inlineStr"/>
       <c r="V32" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>5:30 AM MEET RYAN RD PNR (HWY 100 &amp; 94)</t>
         </is>
       </c>
       <c r="W32" t="inlineStr"/>
@@ -2186,7 +2222,7 @@
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr">
         <is>
-          <t>259 N FOND DU LAC AVE</t>
+          <t>KOHN'S FILLING STATION 259, CAMPBELLSPORT</t>
         </is>
       </c>
       <c r="G33" t="inlineStr"/>
@@ -2194,19 +2230,23 @@
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr"/>
-      <c r="N33" t="inlineStr"/>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/sV4GyYybfkL2</t>
+        </is>
+      </c>
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="inlineStr"/>
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr">
         <is>
-          <t xml:space="preserve">DC5-FINANCIAL </t>
+          <t>6:30 AM START</t>
         </is>
       </c>
       <c r="S33" t="inlineStr"/>
@@ -2214,7 +2254,7 @@
       <c r="U33" t="inlineStr"/>
       <c r="V33" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="W33" t="inlineStr"/>
@@ -2229,7 +2269,7 @@
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/WCsZpx5SMsA2</t>
+          <t>259 N FOND DU LAC AVE</t>
         </is>
       </c>
       <c r="G34" t="inlineStr"/>
@@ -2237,31 +2277,19 @@
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr">
         <is>
-          <t>CONCORD GENERAL STORE, OCONOMOWOC</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N34" t="inlineStr">
-        <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="O34" t="inlineStr">
-        <is>
-          <t>Sante Fe available, Equip</t>
-        </is>
-      </c>
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="inlineStr"/>
+      <c r="O34" t="inlineStr"/>
       <c r="P34" t="inlineStr"/>
       <c r="Q34" t="inlineStr"/>
       <c r="R34" t="inlineStr">
         <is>
-          <t>FESTIVAL #2695, NEW LONDON - LIFO</t>
+          <t xml:space="preserve">DC5-FINANCIAL </t>
         </is>
       </c>
       <c r="S34" t="inlineStr"/>
@@ -2269,7 +2297,7 @@
       <c r="U34" t="inlineStr"/>
       <c r="V34" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1070, RACINE</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="W34" t="inlineStr"/>
@@ -2282,25 +2310,41 @@
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr"/>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/WCsZpx5SMsA2</t>
+        </is>
+      </c>
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr">
         <is>
-          <t>N6485 COUNTY RD F</t>
+          <t>CONCORD GENERAL STORE, OCONOMOWOC</t>
         </is>
       </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
-      <c r="N35" t="inlineStr"/>
-      <c r="O35" t="inlineStr"/>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>Sante Fe available, Equip</t>
+        </is>
+      </c>
       <c r="P35" t="inlineStr"/>
       <c r="Q35" t="inlineStr"/>
       <c r="R35" t="inlineStr">
         <is>
-          <t>308 N SHAWANO ST</t>
+          <t>FESTIVAL #2695, NEW LONDON - LIFO</t>
         </is>
       </c>
       <c r="S35" t="inlineStr"/>
@@ -2308,7 +2352,7 @@
       <c r="U35" t="inlineStr"/>
       <c r="V35" t="inlineStr">
         <is>
-          <t>8400 WASHINGTON AVENUE</t>
+          <t>AURORA OUTPATIENT RX #1070, RACINE</t>
         </is>
       </c>
       <c r="W35" t="inlineStr"/>
@@ -2320,26 +2364,14 @@
       <c r="B36" t="inlineStr"/>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/X4xEoL3zCRA2</t>
+          <t>N6485 COUNTY RD F</t>
         </is>
       </c>
       <c r="K36" t="inlineStr"/>
@@ -2351,7 +2383,7 @@
       <c r="Q36" t="inlineStr"/>
       <c r="R36" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/zqprqLmVpCzdH3s86</t>
+          <t>308 N SHAWANO ST</t>
         </is>
       </c>
       <c r="S36" t="inlineStr"/>
@@ -2359,7 +2391,7 @@
       <c r="U36" t="inlineStr"/>
       <c r="V36" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/WsqKM5J2Bo42</t>
+          <t>8400 WASHINGTON AVENUE</t>
         </is>
       </c>
       <c r="W36" t="inlineStr"/>
@@ -2373,43 +2405,46 @@
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Sue</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Driver,
-Optima</t>
+          <t>Equip</t>
         </is>
       </c>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/X4xEoL3zCRA2</t>
+        </is>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr"/>
-      <c r="N37" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr"/>
       <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr"/>
       <c r="R37" t="inlineStr">
         <is>
-          <t>*pick up Carlie at Slinger Piggly Wiggly at 5:15 am</t>
+          <t>https://goo.gl/maps/zqprqLmVpCzdH3s86</t>
         </is>
       </c>
       <c r="S37" t="inlineStr"/>
       <c r="T37" t="inlineStr"/>
       <c r="U37" t="inlineStr"/>
-      <c r="V37" t="inlineStr"/>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/WsqKM5J2Bo42</t>
+        </is>
+      </c>
       <c r="W37" t="inlineStr"/>
       <c r="X37" t="inlineStr"/>
       <c r="Y37" t="inlineStr"/>
@@ -2419,30 +2454,31 @@
       <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr"/>
-      <c r="G38" t="inlineStr"/>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Sue</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Driver,
+Optima</t>
+        </is>
+      </c>
       <c r="H38" t="inlineStr"/>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>Optima available, Equip</t>
-        </is>
-      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="O38" t="inlineStr"/>
@@ -2450,27 +2486,14 @@
       <c r="Q38" t="inlineStr"/>
       <c r="R38" t="inlineStr">
         <is>
-          <t>1100 E Commerce Blvd, Slinger</t>
+          <t>*pick up Carlie at Slinger Piggly Wiggly at 5:15 am</t>
         </is>
       </c>
       <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr"/>
-      <c r="U38" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="V38" t="inlineStr">
-        <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="W38" t="inlineStr">
-        <is>
-          <t>Driver,
-Sante Fe, Equip</t>
-        </is>
-      </c>
+      <c r="U38" t="inlineStr"/>
+      <c r="V38" t="inlineStr"/>
+      <c r="W38" t="inlineStr"/>
       <c r="X38" t="inlineStr"/>
       <c r="Y38" t="inlineStr"/>
     </row>
@@ -2483,33 +2506,54 @@
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr"/>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>Optima available, Equip</t>
+        </is>
+      </c>
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1085 MILWAUKEE</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="O39" t="inlineStr"/>
       <c r="P39" t="inlineStr"/>
       <c r="Q39" t="inlineStr"/>
-      <c r="R39" t="inlineStr"/>
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>1100 E Commerce Blvd, Slinger</t>
+        </is>
+      </c>
       <c r="S39" t="inlineStr"/>
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>Leyna</t>
-        </is>
-      </c>
-      <c r="W39" t="inlineStr"/>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="W39" t="inlineStr">
+        <is>
+          <t>Driver,
+Sante Fe, Equip</t>
+        </is>
+      </c>
       <c r="X39" t="inlineStr"/>
       <c r="Y39" t="inlineStr"/>
     </row>
@@ -2519,11 +2563,7 @@
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>6:30 AM MEET OFFICE</t>
-        </is>
-      </c>
+      <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
@@ -2533,29 +2573,25 @@
       <c r="M40" t="inlineStr"/>
       <c r="N40" t="inlineStr">
         <is>
-          <t>945 N 12TH ST</t>
+          <t>AURORA OUTPATIENT RX #1085 MILWAUKEE</t>
         </is>
       </c>
       <c r="O40" t="inlineStr"/>
       <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="R40" t="inlineStr">
-        <is>
-          <t>Jeremiah</t>
-        </is>
-      </c>
-      <c r="S40" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="Q40" t="inlineStr"/>
+      <c r="R40" t="inlineStr"/>
+      <c r="S40" t="inlineStr"/>
       <c r="T40" t="inlineStr"/>
-      <c r="U40" t="inlineStr"/>
-      <c r="V40" t="inlineStr"/>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>Leyna</t>
+        </is>
+      </c>
       <c r="W40" t="inlineStr"/>
       <c r="X40" t="inlineStr"/>
       <c r="Y40" t="inlineStr"/>
@@ -2568,7 +2604,7 @@
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t>6:30 AM MEET OFFICE</t>
         </is>
       </c>
       <c r="G41" t="inlineStr"/>
@@ -2580,24 +2616,24 @@
       <c r="M41" t="inlineStr"/>
       <c r="N41" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/ocvCohDG8tChEG7r9</t>
+          <t>945 N 12TH ST</t>
         </is>
       </c>
       <c r="O41" t="inlineStr"/>
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>Jeremiah</t>
         </is>
       </c>
       <c r="S41" t="inlineStr">
         <is>
-          <t>@ Slinger Pig</t>
+          <t>@ Store, Equip</t>
         </is>
       </c>
       <c r="T41" t="inlineStr"/>
@@ -2615,7 +2651,7 @@
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="G42" t="inlineStr"/>
@@ -2625,20 +2661,28 @@
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr"/>
-      <c r="N42" t="inlineStr"/>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/ocvCohDG8tChEG7r9</t>
+        </is>
+      </c>
       <c r="O42" t="inlineStr"/>
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>Cynthia</t>
-        </is>
-      </c>
-      <c r="S42" t="inlineStr"/>
+          <t>Carlie</t>
+        </is>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>@ Slinger Pig</t>
+        </is>
+      </c>
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr"/>
       <c r="V42" t="inlineStr"/>
@@ -2654,7 +2698,7 @@
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr">
         <is>
-          <t>GAUGERT'S BUSS STOP, SULLIVAN</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="G43" t="inlineStr"/>
@@ -2663,38 +2707,21 @@
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N43" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="O43" t="inlineStr">
-        <is>
-          <t>White Camry available, Equip</t>
-        </is>
-      </c>
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="inlineStr"/>
+      <c r="O43" t="inlineStr"/>
       <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>Jerry D</t>
-        </is>
-      </c>
-      <c r="S43" t="inlineStr">
-        <is>
-          <t>Driver,
-White Camry</t>
-        </is>
-      </c>
+          <t>Cynthia</t>
+        </is>
+      </c>
+      <c r="S43" t="inlineStr"/>
       <c r="T43" t="inlineStr"/>
       <c r="U43" t="inlineStr"/>
       <c r="V43" t="inlineStr"/>
@@ -2710,7 +2737,7 @@
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr">
         <is>
-          <t>141 MAIN ST</t>
+          <t>GAUGERT'S BUSS STOP, SULLIVAN</t>
         </is>
       </c>
       <c r="G44" t="inlineStr"/>
@@ -2721,27 +2748,36 @@
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>Sonia</t>
-        </is>
-      </c>
-      <c r="O44" t="inlineStr"/>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>White Camry available, Equip</t>
+        </is>
+      </c>
       <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>Monica</t>
-        </is>
-      </c>
-      <c r="S44" t="inlineStr"/>
+          <t>Jerry D</t>
+        </is>
+      </c>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>Driver,
+White Camry</t>
+        </is>
+      </c>
       <c r="T44" t="inlineStr"/>
       <c r="U44" t="inlineStr"/>
       <c r="V44" t="inlineStr"/>
@@ -2757,7 +2793,7 @@
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/TEUfEX2J1AE2</t>
+          <t>141 MAIN ST</t>
         </is>
       </c>
       <c r="G45" t="inlineStr"/>
@@ -2766,25 +2802,29 @@
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr"/>
-      <c r="N45" t="inlineStr"/>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>Sonia</t>
+        </is>
+      </c>
       <c r="O45" t="inlineStr"/>
       <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>Annette</t>
-        </is>
-      </c>
-      <c r="S45" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Monica</t>
+        </is>
+      </c>
+      <c r="S45" t="inlineStr"/>
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="inlineStr"/>
       <c r="V45" t="inlineStr"/>
@@ -2800,7 +2840,7 @@
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr">
         <is>
-          <t>APPROX 9:30/10:30 AM START</t>
+          <t>https://goo.gl/maps/TEUfEX2J1AE2</t>
         </is>
       </c>
       <c r="G46" t="inlineStr"/>
@@ -2815,12 +2855,12 @@
       <c r="P46" t="inlineStr"/>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>Jerry S</t>
+          <t>Annette</t>
         </is>
       </c>
       <c r="S46" t="inlineStr">
@@ -2843,7 +2883,7 @@
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>APPROX 9:30/10:30 AM START</t>
         </is>
       </c>
       <c r="G47" t="inlineStr"/>
@@ -2853,21 +2893,17 @@
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr"/>
-      <c r="N47" t="inlineStr">
-        <is>
-          <t>6:30 AM MEET RYAN RD PNR (HWY 100 &amp; 94)</t>
-        </is>
-      </c>
+      <c r="N47" t="inlineStr"/>
       <c r="O47" t="inlineStr"/>
       <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>Kirsten</t>
+          <t>Jerry S</t>
         </is>
       </c>
       <c r="S47" t="inlineStr">
@@ -2890,7 +2926,7 @@
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr">
         <is>
-          <t>RON'S MARKET, HELENVILLE</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="G48" t="inlineStr"/>
@@ -2902,19 +2938,19 @@
       <c r="M48" t="inlineStr"/>
       <c r="N48" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t>6:30 AM MEET RYAN RD PNR (HWY 100 &amp; 94)</t>
         </is>
       </c>
       <c r="O48" t="inlineStr"/>
       <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>Lena</t>
+          <t>Kirsten</t>
         </is>
       </c>
       <c r="S48" t="inlineStr">
@@ -2937,7 +2973,7 @@
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr">
         <is>
-          <t>W3094 HWY 18</t>
+          <t>RON'S MARKET, HELENVILLE</t>
         </is>
       </c>
       <c r="G49" t="inlineStr"/>
@@ -2949,19 +2985,19 @@
       <c r="M49" t="inlineStr"/>
       <c r="N49" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="O49" t="inlineStr"/>
       <c r="P49" t="inlineStr"/>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>Madison</t>
+          <t>Lena</t>
         </is>
       </c>
       <c r="S49" t="inlineStr">
@@ -2984,7 +3020,7 @@
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/pyYX7wkpwom</t>
+          <t>W3094 HWY 18</t>
         </is>
       </c>
       <c r="G50" t="inlineStr"/>
@@ -2996,19 +3032,19 @@
       <c r="M50" t="inlineStr"/>
       <c r="N50" t="inlineStr">
         <is>
-          <t>OPEN PANTRY #9570, RACINE</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="O50" t="inlineStr"/>
       <c r="P50" t="inlineStr"/>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>Mai</t>
+          <t>Madison</t>
         </is>
       </c>
       <c r="S50" t="inlineStr">
@@ -3029,7 +3065,11 @@
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr"/>
-      <c r="F51" t="inlineStr"/>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/pyYX7wkpwom</t>
+        </is>
+      </c>
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
@@ -3039,19 +3079,19 @@
       <c r="M51" t="inlineStr"/>
       <c r="N51" t="inlineStr">
         <is>
-          <t>2731 DURAND AVE</t>
+          <t>OPEN PANTRY #9570, RACINE</t>
         </is>
       </c>
       <c r="O51" t="inlineStr"/>
       <c r="P51" t="inlineStr"/>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>Michelle</t>
+          <t>Mai</t>
         </is>
       </c>
       <c r="S51" t="inlineStr">
@@ -3071,22 +3111,9 @@
       <c r="B52" t="inlineStr"/>
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr"/>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>Driver,
-Sante Fe, Equip</t>
-        </is>
-      </c>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -3095,19 +3122,19 @@
       <c r="M52" t="inlineStr"/>
       <c r="N52" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/boUkpED44a62</t>
+          <t>2731 DURAND AVE</t>
         </is>
       </c>
       <c r="O52" t="inlineStr"/>
       <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>Nagui</t>
+          <t>Michelle</t>
         </is>
       </c>
       <c r="S52" t="inlineStr">
@@ -3129,32 +3156,41 @@
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Jerry D</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr"/>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Driver,
+Sante Fe, Equip</t>
+        </is>
+      </c>
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr"/>
-      <c r="N53" t="inlineStr"/>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/boUkpED44a62</t>
+        </is>
+      </c>
       <c r="O53" t="inlineStr"/>
       <c r="P53" t="inlineStr"/>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>14)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>Taya</t>
+          <t>Nagui</t>
         </is>
       </c>
       <c r="S53" t="inlineStr">
@@ -3174,38 +3210,34 @@
       <c r="B54" t="inlineStr"/>
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr"/>
-      <c r="E54" t="inlineStr"/>
-      <c r="F54" t="inlineStr"/>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Jerry D</t>
+        </is>
+      </c>
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N54" t="inlineStr">
-        <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="O54" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="inlineStr"/>
+      <c r="O54" t="inlineStr"/>
       <c r="P54" t="inlineStr"/>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>15)</t>
+          <t>14)</t>
         </is>
       </c>
       <c r="R54" t="inlineStr">
         <is>
-          <t>Terri</t>
+          <t>Taya</t>
         </is>
       </c>
       <c r="S54" t="inlineStr">
@@ -3235,24 +3267,35 @@
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>Driver,
-Red Camry</t>
+          <t>Equip</t>
         </is>
       </c>
       <c r="P55" t="inlineStr"/>
-      <c r="Q55" t="inlineStr"/>
-      <c r="R55" t="inlineStr"/>
-      <c r="S55" t="inlineStr"/>
+      <c r="Q55" t="inlineStr">
+        <is>
+          <t>15)</t>
+        </is>
+      </c>
+      <c r="R55" t="inlineStr">
+        <is>
+          <t>Terri</t>
+        </is>
+      </c>
+      <c r="S55" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T55" t="inlineStr"/>
       <c r="U55" t="inlineStr"/>
       <c r="V55" t="inlineStr"/>
@@ -3266,11 +3309,7 @@
       <c r="C56" t="inlineStr"/>
       <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr"/>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>5:30 AM MEET RYAN RD PNR (HWY 100 &amp; 94)</t>
-        </is>
-      </c>
+      <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
@@ -3279,15 +3318,20 @@
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>Leyna</t>
-        </is>
-      </c>
-      <c r="O56" t="inlineStr"/>
+          <t>Carlie</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>Driver,
+Red Camry</t>
+        </is>
+      </c>
       <c r="P56" t="inlineStr"/>
       <c r="Q56" t="inlineStr"/>
       <c r="R56" t="inlineStr"/>
@@ -3307,7 +3351,7 @@
       <c r="E57" t="inlineStr"/>
       <c r="F57" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>5:30 AM MEET RYAN RD PNR (HWY 100 &amp; 94)</t>
         </is>
       </c>
       <c r="G57" t="inlineStr"/>
@@ -3316,16 +3360,20 @@
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr"/>
-      <c r="N57" t="inlineStr"/>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>Leyna</t>
+        </is>
+      </c>
       <c r="O57" t="inlineStr"/>
       <c r="P57" t="inlineStr"/>
       <c r="Q57" t="inlineStr"/>
-      <c r="R57" t="inlineStr">
-        <is>
-          <t>6:30 AM MEET WATERTOWN PLANK</t>
-        </is>
-      </c>
+      <c r="R57" t="inlineStr"/>
       <c r="S57" t="inlineStr"/>
       <c r="T57" t="inlineStr"/>
       <c r="U57" t="inlineStr"/>
@@ -3342,7 +3390,7 @@
       <c r="E58" t="inlineStr"/>
       <c r="F58" t="inlineStr">
         <is>
-          <t>SCAN-ITEM LEVEL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="G58" t="inlineStr"/>
@@ -3358,7 +3406,7 @@
       <c r="Q58" t="inlineStr"/>
       <c r="R58" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t>6:30 AM MEET WATERTOWN PLANK</t>
         </is>
       </c>
       <c r="S58" t="inlineStr"/>
@@ -3377,7 +3425,7 @@
       <c r="E59" t="inlineStr"/>
       <c r="F59" t="inlineStr">
         <is>
-          <t>ASCENSION COMMUNITY RX #1102-ATRIUM, RACINE</t>
+          <t>SCAN-ITEM LEVEL</t>
         </is>
       </c>
       <c r="G59" t="inlineStr"/>
@@ -3393,7 +3441,7 @@
       <c r="Q59" t="inlineStr"/>
       <c r="R59" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="S59" t="inlineStr"/>
@@ -3412,7 +3460,7 @@
       <c r="E60" t="inlineStr"/>
       <c r="F60" t="inlineStr">
         <is>
-          <t>3811 SPRING ST</t>
+          <t>ASCENSION COMMUNITY RX #1102-ATRIUM, RACINE</t>
         </is>
       </c>
       <c r="G60" t="inlineStr"/>
@@ -3428,7 +3476,7 @@
       <c r="Q60" t="inlineStr"/>
       <c r="R60" t="inlineStr">
         <is>
-          <t>RAPID MART HARTFORD</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="S60" t="inlineStr"/>
@@ -3447,7 +3495,7 @@
       <c r="E61" t="inlineStr"/>
       <c r="F61" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/HCpmGJRX9sG2</t>
+          <t>3811 SPRING ST</t>
         </is>
       </c>
       <c r="G61" t="inlineStr"/>
@@ -3463,7 +3511,7 @@
       <c r="Q61" t="inlineStr"/>
       <c r="R61" t="inlineStr">
         <is>
-          <t>2712 E SUMNER ST</t>
+          <t>RAPID MART HARTFORD</t>
         </is>
       </c>
       <c r="S61" t="inlineStr"/>
@@ -3480,7 +3528,11 @@
       <c r="C62" t="inlineStr"/>
       <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr"/>
-      <c r="F62" t="inlineStr"/>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/HCpmGJRX9sG2</t>
+        </is>
+      </c>
       <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
@@ -3494,7 +3546,7 @@
       <c r="Q62" t="inlineStr"/>
       <c r="R62" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/5dpExsTUAgz</t>
+          <t>2712 E SUMNER ST</t>
         </is>
       </c>
       <c r="S62" t="inlineStr"/>
@@ -3510,22 +3562,9 @@
       <c r="B63" t="inlineStr"/>
       <c r="C63" t="inlineStr"/>
       <c r="D63" t="inlineStr"/>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>Driver,
-White Camry, Equip</t>
-        </is>
-      </c>
+      <c r="E63" t="inlineStr"/>
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="inlineStr"/>
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -3536,7 +3575,11 @@
       <c r="O63" t="inlineStr"/>
       <c r="P63" t="inlineStr"/>
       <c r="Q63" t="inlineStr"/>
-      <c r="R63" t="inlineStr"/>
+      <c r="R63" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/5dpExsTUAgz</t>
+        </is>
+      </c>
       <c r="S63" t="inlineStr"/>
       <c r="T63" t="inlineStr"/>
       <c r="U63" t="inlineStr"/>
@@ -3552,15 +3595,20 @@
       <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Cynthia</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr"/>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Driver,
+White Camry, Equip</t>
+        </is>
+      </c>
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -3570,22 +3618,9 @@
       <c r="N64" t="inlineStr"/>
       <c r="O64" t="inlineStr"/>
       <c r="P64" t="inlineStr"/>
-      <c r="Q64" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="R64" t="inlineStr">
-        <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="S64" t="inlineStr">
-        <is>
-          <t>Driver,
-Altima, Equip</t>
-        </is>
-      </c>
+      <c r="Q64" t="inlineStr"/>
+      <c r="R64" t="inlineStr"/>
+      <c r="S64" t="inlineStr"/>
       <c r="T64" t="inlineStr"/>
       <c r="U64" t="inlineStr"/>
       <c r="V64" t="inlineStr"/>
@@ -3598,8 +3633,16 @@
       <c r="B65" t="inlineStr"/>
       <c r="C65" t="inlineStr"/>
       <c r="D65" t="inlineStr"/>
-      <c r="E65" t="inlineStr"/>
-      <c r="F65" t="inlineStr"/>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Cynthia</t>
+        </is>
+      </c>
       <c r="G65" t="inlineStr"/>
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
@@ -3612,15 +3655,20 @@
       <c r="P65" t="inlineStr"/>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="R65" t="inlineStr">
         <is>
-          <t>Leyna</t>
-        </is>
-      </c>
-      <c r="S65" t="inlineStr"/>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="S65" t="inlineStr">
+        <is>
+          <t>Driver,
+Altima, Equip</t>
+        </is>
+      </c>
       <c r="T65" t="inlineStr"/>
       <c r="U65" t="inlineStr"/>
       <c r="V65" t="inlineStr"/>
@@ -3645,8 +3693,16 @@
       <c r="N66" t="inlineStr"/>
       <c r="O66" t="inlineStr"/>
       <c r="P66" t="inlineStr"/>
-      <c r="Q66" t="inlineStr"/>
-      <c r="R66" t="inlineStr"/>
+      <c r="Q66" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="R66" t="inlineStr">
+        <is>
+          <t>Leyna</t>
+        </is>
+      </c>
       <c r="S66" t="inlineStr"/>
       <c r="T66" t="inlineStr"/>
       <c r="U66" t="inlineStr"/>
@@ -3700,11 +3756,7 @@
       <c r="O68" t="inlineStr"/>
       <c r="P68" t="inlineStr"/>
       <c r="Q68" t="inlineStr"/>
-      <c r="R68" t="inlineStr">
-        <is>
-          <t>Office</t>
-        </is>
-      </c>
+      <c r="R68" t="inlineStr"/>
       <c r="S68" t="inlineStr"/>
       <c r="T68" t="inlineStr"/>
       <c r="U68" t="inlineStr"/>
@@ -3733,7 +3785,7 @@
       <c r="Q69" t="inlineStr"/>
       <c r="R69" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>Office</t>
         </is>
       </c>
       <c r="S69" t="inlineStr"/>
@@ -3744,6 +3796,37 @@
       <c r="X69" t="inlineStr"/>
       <c r="Y69" t="inlineStr"/>
     </row>
+    <row r="70">
+      <c r="A70" t="inlineStr"/>
+      <c r="B70" t="inlineStr"/>
+      <c r="C70" t="inlineStr"/>
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="inlineStr"/>
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="inlineStr"/>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="inlineStr"/>
+      <c r="O70" t="inlineStr"/>
+      <c r="P70" t="inlineStr"/>
+      <c r="Q70" t="inlineStr"/>
+      <c r="R70" t="inlineStr">
+        <is>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="S70" t="inlineStr"/>
+      <c r="T70" t="inlineStr"/>
+      <c r="U70" t="inlineStr"/>
+      <c r="V70" t="inlineStr"/>
+      <c r="W70" t="inlineStr"/>
+      <c r="X70" t="inlineStr"/>
+      <c r="Y70" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/04-27-25 to 05-03-25 Milwaukee Schedule.xlsx
+++ b/04-27-25 to 05-03-25 Milwaukee Schedule.xlsx
@@ -1172,15 +1172,10 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Driver,
-Altima</t>
-        </is>
-      </c>
+          <t>Cynthia</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
@@ -1252,10 +1247,15 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr"/>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Driver,
+Altima</t>
+        </is>
+      </c>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
@@ -1333,7 +1333,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="C19" t="inlineStr"/>
@@ -1579,7 +1579,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Evelin</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1660,21 +1660,9 @@
       <c r="Y22" t="inlineStr"/>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>8)</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Qiana</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="A23" t="inlineStr"/>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr"/>

--- a/04-27-25 to 05-03-25 Milwaukee Schedule.xlsx
+++ b/04-27-25 to 05-03-25 Milwaukee Schedule.xlsx
@@ -542,7 +542,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t xml:space="preserve">Katherine </t>
         </is>
       </c>
       <c r="G4" t="inlineStr"/>
@@ -593,7 +593,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Katherine </t>
+          <t xml:space="preserve">DJ </t>
         </is>
       </c>
       <c r="G5" t="inlineStr"/>
@@ -644,7 +644,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">DJ </t>
+          <t xml:space="preserve">Kim </t>
         </is>
       </c>
       <c r="G6" t="inlineStr"/>
@@ -679,7 +679,7 @@
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kim </t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="G7" t="inlineStr"/>
@@ -1510,10 +1510,14 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Sydney</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr"/>
+          <t>Brianna</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr">
         <is>
@@ -1588,21 +1592,9 @@
         </is>
       </c>
       <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>7)</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>Brianna</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr">
         <is>

--- a/04-27-25 to 05-03-25 Milwaukee Schedule.xlsx
+++ b/04-27-25 to 05-03-25 Milwaukee Schedule.xlsx
@@ -1345,7 +1345,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Lexi</t>
+          <t>Greg</t>
         </is>
       </c>
       <c r="G19" t="inlineStr"/>
@@ -1409,14 +1409,10 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Brianna</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Paul</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
@@ -1425,7 +1421,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Lexi</t>
         </is>
       </c>
       <c r="G20" t="inlineStr"/>
@@ -1494,7 +1490,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Brianna</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1510,14 +1506,10 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Brianna</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Paul</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr">
         <is>
@@ -1583,7 +1575,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1592,9 +1584,21 @@
         </is>
       </c>
       <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>7)</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Brianna</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr">
         <is>
@@ -1652,9 +1656,21 @@
       <c r="Y22" t="inlineStr"/>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr"/>
-      <c r="B23" t="inlineStr"/>
-      <c r="C23" t="inlineStr"/>
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>8)</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Qiana</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr"/>

--- a/04-27-25 to 05-03-25 Milwaukee Schedule.xlsx
+++ b/04-27-25 to 05-03-25 Milwaukee Schedule.xlsx
@@ -545,7 +545,11 @@
           <t xml:space="preserve">Katherine </t>
         </is>
       </c>
-      <c r="G4" t="inlineStr"/>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Bag 8</t>
+        </is>
+      </c>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr">
@@ -553,7 +557,11 @@
           <t xml:space="preserve">Kim </t>
         </is>
       </c>
-      <c r="K4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Bags 5-7</t>
+        </is>
+      </c>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr">
@@ -561,7 +569,11 @@
           <t xml:space="preserve">DJ </t>
         </is>
       </c>
-      <c r="O4" t="inlineStr"/>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>Bags 1,2</t>
+        </is>
+      </c>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -569,7 +581,11 @@
           <t xml:space="preserve">Katherine </t>
         </is>
       </c>
-      <c r="S4" t="inlineStr"/>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>Bag 8</t>
+        </is>
+      </c>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr"/>
       <c r="V4" t="inlineStr">
@@ -577,7 +593,11 @@
           <t xml:space="preserve">DJ </t>
         </is>
       </c>
-      <c r="W4" t="inlineStr"/>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>Bags 1-3</t>
+        </is>
+      </c>
       <c r="X4" t="inlineStr"/>
       <c r="Y4" t="inlineStr"/>
     </row>
@@ -596,7 +616,11 @@
           <t xml:space="preserve">DJ </t>
         </is>
       </c>
-      <c r="G5" t="inlineStr"/>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Bags 1,2</t>
+        </is>
+      </c>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr">
@@ -604,7 +628,11 @@
           <t xml:space="preserve">Katherine </t>
         </is>
       </c>
-      <c r="K5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bag 8 </t>
+        </is>
+      </c>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr">
@@ -612,7 +640,11 @@
           <t xml:space="preserve">Ian </t>
         </is>
       </c>
-      <c r="O5" t="inlineStr"/>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>Bag 7</t>
+        </is>
+      </c>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -620,7 +652,11 @@
           <t xml:space="preserve">DJ </t>
         </is>
       </c>
-      <c r="S5" t="inlineStr"/>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>Bag 1</t>
+        </is>
+      </c>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr"/>
       <c r="V5" t="inlineStr">
@@ -628,7 +664,11 @@
           <t xml:space="preserve">Ian </t>
         </is>
       </c>
-      <c r="W5" t="inlineStr"/>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>Bag 7, SB 11</t>
+        </is>
+      </c>
       <c r="X5" t="inlineStr"/>
       <c r="Y5" t="inlineStr"/>
     </row>
@@ -647,7 +687,11 @@
           <t xml:space="preserve">Kim </t>
         </is>
       </c>
-      <c r="G6" t="inlineStr"/>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Bag 5, SB 11</t>
+        </is>
+      </c>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -659,7 +703,11 @@
           <t xml:space="preserve">Kim </t>
         </is>
       </c>
-      <c r="O6" t="inlineStr"/>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>Bag 5, SB 11</t>
+        </is>
+      </c>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr"/>
@@ -682,7 +730,11 @@
           <t>Ian</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr"/>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Bag 7</t>
+        </is>
+      </c>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -694,7 +746,11 @@
           <t xml:space="preserve">Katherine </t>
         </is>
       </c>
-      <c r="O7" t="inlineStr"/>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bag 8 </t>
+        </is>
+      </c>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr"/>

--- a/04-27-25 to 05-03-25 Milwaukee Schedule.xlsx
+++ b/04-27-25 to 05-03-25 Milwaukee Schedule.xlsx
@@ -571,7 +571,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Bags 1,2</t>
+          <t>Bags 1-3</t>
         </is>
       </c>
       <c r="P4" t="inlineStr"/>

--- a/04-27-25 to 05-03-25 Milwaukee Schedule.xlsx
+++ b/04-27-25 to 05-03-25 Milwaukee Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y70"/>
+  <dimension ref="A1:Y69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -753,7 +753,11 @@
       </c>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>Red Van at Lutters</t>
+        </is>
+      </c>
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="inlineStr"/>
@@ -1512,7 +1516,7 @@
       <c r="O20" t="inlineStr">
         <is>
           <t>Driver,
-Red Van</t>
+Optima</t>
         </is>
       </c>
       <c r="P20" t="inlineStr"/>
@@ -1617,7 +1621,7 @@
       <c r="W21" t="inlineStr">
         <is>
           <t>Driver,
-Red Van</t>
+Optima</t>
         </is>
       </c>
       <c r="X21" t="inlineStr"/>
@@ -2873,10 +2877,14 @@
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>Monica</t>
-        </is>
-      </c>
-      <c r="S45" t="inlineStr"/>
+          <t>Annette</t>
+        </is>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="inlineStr"/>
       <c r="V45" t="inlineStr"/>
@@ -2912,7 +2920,7 @@
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>Annette</t>
+          <t>Jerry S</t>
         </is>
       </c>
       <c r="S46" t="inlineStr">
@@ -2955,7 +2963,7 @@
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>Jerry S</t>
+          <t>Kirsten</t>
         </is>
       </c>
       <c r="S47" t="inlineStr">
@@ -3002,7 +3010,7 @@
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>Kirsten</t>
+          <t>Lena</t>
         </is>
       </c>
       <c r="S48" t="inlineStr">
@@ -3049,7 +3057,7 @@
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>Lena</t>
+          <t>Madison</t>
         </is>
       </c>
       <c r="S49" t="inlineStr">
@@ -3096,7 +3104,7 @@
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>Madison</t>
+          <t>Mai</t>
         </is>
       </c>
       <c r="S50" t="inlineStr">
@@ -3143,7 +3151,7 @@
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>Mai</t>
+          <t>Michelle</t>
         </is>
       </c>
       <c r="S51" t="inlineStr">
@@ -3186,7 +3194,7 @@
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>Michelle</t>
+          <t>Nagui</t>
         </is>
       </c>
       <c r="S52" t="inlineStr">
@@ -3242,7 +3250,7 @@
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>Nagui</t>
+          <t>Taya</t>
         </is>
       </c>
       <c r="S53" t="inlineStr">
@@ -3289,7 +3297,7 @@
       </c>
       <c r="R54" t="inlineStr">
         <is>
-          <t>Taya</t>
+          <t>Terri</t>
         </is>
       </c>
       <c r="S54" t="inlineStr">
@@ -3333,21 +3341,9 @@
         </is>
       </c>
       <c r="P55" t="inlineStr"/>
-      <c r="Q55" t="inlineStr">
-        <is>
-          <t>15)</t>
-        </is>
-      </c>
-      <c r="R55" t="inlineStr">
-        <is>
-          <t>Terri</t>
-        </is>
-      </c>
-      <c r="S55" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="Q55" t="inlineStr"/>
+      <c r="R55" t="inlineStr"/>
+      <c r="S55" t="inlineStr"/>
       <c r="T55" t="inlineStr"/>
       <c r="U55" t="inlineStr"/>
       <c r="V55" t="inlineStr"/>
@@ -3425,7 +3421,11 @@
       <c r="O57" t="inlineStr"/>
       <c r="P57" t="inlineStr"/>
       <c r="Q57" t="inlineStr"/>
-      <c r="R57" t="inlineStr"/>
+      <c r="R57" t="inlineStr">
+        <is>
+          <t>6:30 AM MEET WATERTOWN PLANK</t>
+        </is>
+      </c>
       <c r="S57" t="inlineStr"/>
       <c r="T57" t="inlineStr"/>
       <c r="U57" t="inlineStr"/>
@@ -3458,7 +3458,7 @@
       <c r="Q58" t="inlineStr"/>
       <c r="R58" t="inlineStr">
         <is>
-          <t>6:30 AM MEET WATERTOWN PLANK</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="S58" t="inlineStr"/>
@@ -3493,7 +3493,7 @@
       <c r="Q59" t="inlineStr"/>
       <c r="R59" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="S59" t="inlineStr"/>
@@ -3528,7 +3528,7 @@
       <c r="Q60" t="inlineStr"/>
       <c r="R60" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>RAPID MART HARTFORD</t>
         </is>
       </c>
       <c r="S60" t="inlineStr"/>
@@ -3563,7 +3563,7 @@
       <c r="Q61" t="inlineStr"/>
       <c r="R61" t="inlineStr">
         <is>
-          <t>RAPID MART HARTFORD</t>
+          <t>2712 E SUMNER ST</t>
         </is>
       </c>
       <c r="S61" t="inlineStr"/>
@@ -3598,7 +3598,7 @@
       <c r="Q62" t="inlineStr"/>
       <c r="R62" t="inlineStr">
         <is>
-          <t>2712 E SUMNER ST</t>
+          <t>https://goo.gl/maps/5dpExsTUAgz</t>
         </is>
       </c>
       <c r="S62" t="inlineStr"/>
@@ -3627,11 +3627,7 @@
       <c r="O63" t="inlineStr"/>
       <c r="P63" t="inlineStr"/>
       <c r="Q63" t="inlineStr"/>
-      <c r="R63" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/5dpExsTUAgz</t>
-        </is>
-      </c>
+      <c r="R63" t="inlineStr"/>
       <c r="S63" t="inlineStr"/>
       <c r="T63" t="inlineStr"/>
       <c r="U63" t="inlineStr"/>
@@ -3670,9 +3666,22 @@
       <c r="N64" t="inlineStr"/>
       <c r="O64" t="inlineStr"/>
       <c r="P64" t="inlineStr"/>
-      <c r="Q64" t="inlineStr"/>
-      <c r="R64" t="inlineStr"/>
-      <c r="S64" t="inlineStr"/>
+      <c r="Q64" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="R64" t="inlineStr">
+        <is>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="S64" t="inlineStr">
+        <is>
+          <t>Driver,
+Altima, Equip</t>
+        </is>
+      </c>
       <c r="T64" t="inlineStr"/>
       <c r="U64" t="inlineStr"/>
       <c r="V64" t="inlineStr"/>
@@ -3707,20 +3716,15 @@
       <c r="P65" t="inlineStr"/>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R65" t="inlineStr">
         <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="S65" t="inlineStr">
-        <is>
-          <t>Driver,
-Altima, Equip</t>
-        </is>
-      </c>
+          <t>Leyna</t>
+        </is>
+      </c>
+      <c r="S65" t="inlineStr"/>
       <c r="T65" t="inlineStr"/>
       <c r="U65" t="inlineStr"/>
       <c r="V65" t="inlineStr"/>
@@ -3745,16 +3749,8 @@
       <c r="N66" t="inlineStr"/>
       <c r="O66" t="inlineStr"/>
       <c r="P66" t="inlineStr"/>
-      <c r="Q66" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="R66" t="inlineStr">
-        <is>
-          <t>Leyna</t>
-        </is>
-      </c>
+      <c r="Q66" t="inlineStr"/>
+      <c r="R66" t="inlineStr"/>
       <c r="S66" t="inlineStr"/>
       <c r="T66" t="inlineStr"/>
       <c r="U66" t="inlineStr"/>
@@ -3808,7 +3804,11 @@
       <c r="O68" t="inlineStr"/>
       <c r="P68" t="inlineStr"/>
       <c r="Q68" t="inlineStr"/>
-      <c r="R68" t="inlineStr"/>
+      <c r="R68" t="inlineStr">
+        <is>
+          <t>Office</t>
+        </is>
+      </c>
       <c r="S68" t="inlineStr"/>
       <c r="T68" t="inlineStr"/>
       <c r="U68" t="inlineStr"/>
@@ -3837,7 +3837,7 @@
       <c r="Q69" t="inlineStr"/>
       <c r="R69" t="inlineStr">
         <is>
-          <t>Office</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="S69" t="inlineStr"/>
@@ -3848,37 +3848,6 @@
       <c r="X69" t="inlineStr"/>
       <c r="Y69" t="inlineStr"/>
     </row>
-    <row r="70">
-      <c r="A70" t="inlineStr"/>
-      <c r="B70" t="inlineStr"/>
-      <c r="C70" t="inlineStr"/>
-      <c r="D70" t="inlineStr"/>
-      <c r="E70" t="inlineStr"/>
-      <c r="F70" t="inlineStr"/>
-      <c r="G70" t="inlineStr"/>
-      <c r="H70" t="inlineStr"/>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr"/>
-      <c r="N70" t="inlineStr"/>
-      <c r="O70" t="inlineStr"/>
-      <c r="P70" t="inlineStr"/>
-      <c r="Q70" t="inlineStr"/>
-      <c r="R70" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="S70" t="inlineStr"/>
-      <c r="T70" t="inlineStr"/>
-      <c r="U70" t="inlineStr"/>
-      <c r="V70" t="inlineStr"/>
-      <c r="W70" t="inlineStr"/>
-      <c r="X70" t="inlineStr"/>
-      <c r="Y70" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/04-27-25 to 05-03-25 Milwaukee Schedule.xlsx
+++ b/04-27-25 to 05-03-25 Milwaukee Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y69"/>
+  <dimension ref="A1:Y68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2774,10 +2774,15 @@
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>Cynthia</t>
-        </is>
-      </c>
-      <c r="S43" t="inlineStr"/>
+          <t>Jerry D</t>
+        </is>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>Driver,
+White Camry</t>
+        </is>
+      </c>
       <c r="T43" t="inlineStr"/>
       <c r="U43" t="inlineStr"/>
       <c r="V43" t="inlineStr"/>
@@ -2825,13 +2830,12 @@
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Annette</t>
         </is>
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>Driver,
-White Camry</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="T44" t="inlineStr"/>
@@ -2877,7 +2881,7 @@
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>Annette</t>
+          <t>Jerry S</t>
         </is>
       </c>
       <c r="S45" t="inlineStr">
@@ -2920,7 +2924,7 @@
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>Jerry S</t>
+          <t>Kirsten</t>
         </is>
       </c>
       <c r="S46" t="inlineStr">
@@ -2963,7 +2967,7 @@
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>Kirsten</t>
+          <t>Lena</t>
         </is>
       </c>
       <c r="S47" t="inlineStr">
@@ -3010,7 +3014,7 @@
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>Lena</t>
+          <t>Madison</t>
         </is>
       </c>
       <c r="S48" t="inlineStr">
@@ -3057,7 +3061,7 @@
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>Madison</t>
+          <t>Mai</t>
         </is>
       </c>
       <c r="S49" t="inlineStr">
@@ -3104,7 +3108,7 @@
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>Mai</t>
+          <t>Michelle</t>
         </is>
       </c>
       <c r="S50" t="inlineStr">
@@ -3151,7 +3155,7 @@
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>Michelle</t>
+          <t>Nagui</t>
         </is>
       </c>
       <c r="S51" t="inlineStr">
@@ -3194,7 +3198,7 @@
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>Nagui</t>
+          <t>Taya</t>
         </is>
       </c>
       <c r="S52" t="inlineStr">
@@ -3250,7 +3254,7 @@
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>Taya</t>
+          <t>Terri</t>
         </is>
       </c>
       <c r="S53" t="inlineStr">
@@ -3290,21 +3294,9 @@
       <c r="N54" t="inlineStr"/>
       <c r="O54" t="inlineStr"/>
       <c r="P54" t="inlineStr"/>
-      <c r="Q54" t="inlineStr">
-        <is>
-          <t>14)</t>
-        </is>
-      </c>
-      <c r="R54" t="inlineStr">
-        <is>
-          <t>Terri</t>
-        </is>
-      </c>
-      <c r="S54" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="Q54" t="inlineStr"/>
+      <c r="R54" t="inlineStr"/>
+      <c r="S54" t="inlineStr"/>
       <c r="T54" t="inlineStr"/>
       <c r="U54" t="inlineStr"/>
       <c r="V54" t="inlineStr"/>
@@ -3382,7 +3374,11 @@
       </c>
       <c r="P56" t="inlineStr"/>
       <c r="Q56" t="inlineStr"/>
-      <c r="R56" t="inlineStr"/>
+      <c r="R56" t="inlineStr">
+        <is>
+          <t>6:30 AM MEET WATERTOWN PLANK</t>
+        </is>
+      </c>
       <c r="S56" t="inlineStr"/>
       <c r="T56" t="inlineStr"/>
       <c r="U56" t="inlineStr"/>
@@ -3423,7 +3419,7 @@
       <c r="Q57" t="inlineStr"/>
       <c r="R57" t="inlineStr">
         <is>
-          <t>6:30 AM MEET WATERTOWN PLANK</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="S57" t="inlineStr"/>
@@ -3458,7 +3454,7 @@
       <c r="Q58" t="inlineStr"/>
       <c r="R58" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="S58" t="inlineStr"/>
@@ -3493,7 +3489,7 @@
       <c r="Q59" t="inlineStr"/>
       <c r="R59" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>RAPID MART HARTFORD</t>
         </is>
       </c>
       <c r="S59" t="inlineStr"/>
@@ -3528,7 +3524,7 @@
       <c r="Q60" t="inlineStr"/>
       <c r="R60" t="inlineStr">
         <is>
-          <t>RAPID MART HARTFORD</t>
+          <t>2712 E SUMNER ST</t>
         </is>
       </c>
       <c r="S60" t="inlineStr"/>
@@ -3563,7 +3559,7 @@
       <c r="Q61" t="inlineStr"/>
       <c r="R61" t="inlineStr">
         <is>
-          <t>2712 E SUMNER ST</t>
+          <t>https://goo.gl/maps/5dpExsTUAgz</t>
         </is>
       </c>
       <c r="S61" t="inlineStr"/>
@@ -3596,11 +3592,7 @@
       <c r="O62" t="inlineStr"/>
       <c r="P62" t="inlineStr"/>
       <c r="Q62" t="inlineStr"/>
-      <c r="R62" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/5dpExsTUAgz</t>
-        </is>
-      </c>
+      <c r="R62" t="inlineStr"/>
       <c r="S62" t="inlineStr"/>
       <c r="T62" t="inlineStr"/>
       <c r="U62" t="inlineStr"/>
@@ -3626,9 +3618,22 @@
       <c r="N63" t="inlineStr"/>
       <c r="O63" t="inlineStr"/>
       <c r="P63" t="inlineStr"/>
-      <c r="Q63" t="inlineStr"/>
-      <c r="R63" t="inlineStr"/>
-      <c r="S63" t="inlineStr"/>
+      <c r="Q63" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="R63" t="inlineStr">
+        <is>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="S63" t="inlineStr">
+        <is>
+          <t>Driver,
+Altima, Equip</t>
+        </is>
+      </c>
       <c r="T63" t="inlineStr"/>
       <c r="U63" t="inlineStr"/>
       <c r="V63" t="inlineStr"/>
@@ -3668,20 +3673,15 @@
       <c r="P64" t="inlineStr"/>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R64" t="inlineStr">
         <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="S64" t="inlineStr">
-        <is>
-          <t>Driver,
-Altima, Equip</t>
-        </is>
-      </c>
+          <t>Leyna</t>
+        </is>
+      </c>
+      <c r="S64" t="inlineStr"/>
       <c r="T64" t="inlineStr"/>
       <c r="U64" t="inlineStr"/>
       <c r="V64" t="inlineStr"/>
@@ -3714,16 +3714,8 @@
       <c r="N65" t="inlineStr"/>
       <c r="O65" t="inlineStr"/>
       <c r="P65" t="inlineStr"/>
-      <c r="Q65" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="R65" t="inlineStr">
-        <is>
-          <t>Leyna</t>
-        </is>
-      </c>
+      <c r="Q65" t="inlineStr"/>
+      <c r="R65" t="inlineStr"/>
       <c r="S65" t="inlineStr"/>
       <c r="T65" t="inlineStr"/>
       <c r="U65" t="inlineStr"/>
@@ -3777,7 +3769,11 @@
       <c r="O67" t="inlineStr"/>
       <c r="P67" t="inlineStr"/>
       <c r="Q67" t="inlineStr"/>
-      <c r="R67" t="inlineStr"/>
+      <c r="R67" t="inlineStr">
+        <is>
+          <t>Office</t>
+        </is>
+      </c>
       <c r="S67" t="inlineStr"/>
       <c r="T67" t="inlineStr"/>
       <c r="U67" t="inlineStr"/>
@@ -3806,7 +3802,7 @@
       <c r="Q68" t="inlineStr"/>
       <c r="R68" t="inlineStr">
         <is>
-          <t>Office</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="S68" t="inlineStr"/>
@@ -3817,37 +3813,6 @@
       <c r="X68" t="inlineStr"/>
       <c r="Y68" t="inlineStr"/>
     </row>
-    <row r="69">
-      <c r="A69" t="inlineStr"/>
-      <c r="B69" t="inlineStr"/>
-      <c r="C69" t="inlineStr"/>
-      <c r="D69" t="inlineStr"/>
-      <c r="E69" t="inlineStr"/>
-      <c r="F69" t="inlineStr"/>
-      <c r="G69" t="inlineStr"/>
-      <c r="H69" t="inlineStr"/>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr"/>
-      <c r="N69" t="inlineStr"/>
-      <c r="O69" t="inlineStr"/>
-      <c r="P69" t="inlineStr"/>
-      <c r="Q69" t="inlineStr"/>
-      <c r="R69" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="S69" t="inlineStr"/>
-      <c r="T69" t="inlineStr"/>
-      <c r="U69" t="inlineStr"/>
-      <c r="V69" t="inlineStr"/>
-      <c r="W69" t="inlineStr"/>
-      <c r="X69" t="inlineStr"/>
-      <c r="Y69" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/04-27-25 to 05-03-25 Milwaukee Schedule.xlsx
+++ b/04-27-25 to 05-03-25 Milwaukee Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y68"/>
+  <dimension ref="A1:Y70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1188,8 +1188,8 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>@ Store,
-White Camry, Equip</t>
+          <t>Driver
+Red Van, Equip</t>
         </is>
       </c>
       <c r="L16" t="inlineStr"/>
@@ -1578,15 +1578,10 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Jerry D</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>Driver,
-Red Van</t>
-        </is>
-      </c>
+          <t>Justin Learned</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr">
         <is>
@@ -1667,7 +1662,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Justin Learned</t>
+          <t>Lexi</t>
         </is>
       </c>
       <c r="K22" t="inlineStr"/>
@@ -1743,7 +1738,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Lexi</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="K23" t="inlineStr"/>
@@ -1802,7 +1797,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="K24" t="inlineStr"/>
@@ -1865,7 +1860,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>NasZire</t>
         </is>
       </c>
       <c r="K25" t="inlineStr"/>
@@ -1928,7 +1923,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>NasZire</t>
+          <t>Pamela</t>
         </is>
       </c>
       <c r="K26" t="inlineStr"/>
@@ -1987,7 +1982,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Pamela</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="K27" t="inlineStr"/>
@@ -2046,7 +2041,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="K28" t="inlineStr"/>
@@ -2106,7 +2101,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="K29" t="inlineStr"/>
@@ -2162,16 +2157,8 @@
       </c>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>15)</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>Sydney</t>
-        </is>
-      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr"/>
@@ -2241,7 +2228,11 @@
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>7:00 AM START</t>
+        </is>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr"/>
@@ -2255,7 +2246,7 @@
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="inlineStr">
         <is>
-          <t>4:45 AM MEET WATERTOWN PLANK</t>
+          <t>4:30 AM OFFICE LEAVE TIME</t>
         </is>
       </c>
       <c r="S32" t="inlineStr"/>
@@ -2286,7 +2277,7 @@
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="K33" t="inlineStr"/>
@@ -2333,7 +2324,7 @@
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>CONCORD GENERAL STORE, OCONOMOWOC</t>
         </is>
       </c>
       <c r="K34" t="inlineStr"/>
@@ -2376,7 +2367,7 @@
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr">
         <is>
-          <t>CONCORD GENERAL STORE, OCONOMOWOC</t>
+          <t>N6485 COUNTY RD F</t>
         </is>
       </c>
       <c r="K35" t="inlineStr"/>
@@ -2427,7 +2418,7 @@
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr">
         <is>
-          <t>N6485 COUNTY RD F</t>
+          <t>https://goo.gl/maps/X4xEoL3zCRA2</t>
         </is>
       </c>
       <c r="K36" t="inlineStr"/>
@@ -2476,11 +2467,7 @@
       </c>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/X4xEoL3zCRA2</t>
-        </is>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr"/>
@@ -2527,9 +2514,21 @@
         </is>
       </c>
       <c r="H38" t="inlineStr"/>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>Optima available, Equip</t>
+        </is>
+      </c>
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr">
@@ -2562,21 +2561,9 @@
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr"/>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>Optima available, Equip</t>
-        </is>
-      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr">
@@ -2924,7 +2911,7 @@
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>Kirsten</t>
+          <t>Josie</t>
         </is>
       </c>
       <c r="S46" t="inlineStr">
@@ -2967,7 +2954,7 @@
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>Lena</t>
+          <t>Kirsten</t>
         </is>
       </c>
       <c r="S47" t="inlineStr">
@@ -3014,7 +3001,7 @@
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>Madison</t>
+          <t>Lena</t>
         </is>
       </c>
       <c r="S48" t="inlineStr">
@@ -3061,7 +3048,7 @@
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>Mai</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="S49" t="inlineStr">
@@ -3108,7 +3095,7 @@
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>Michelle</t>
+          <t>Madison</t>
         </is>
       </c>
       <c r="S50" t="inlineStr">
@@ -3155,7 +3142,7 @@
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>Nagui</t>
+          <t>Mai</t>
         </is>
       </c>
       <c r="S51" t="inlineStr">
@@ -3198,7 +3185,7 @@
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>Taya</t>
+          <t>Michelle</t>
         </is>
       </c>
       <c r="S52" t="inlineStr">
@@ -3254,7 +3241,7 @@
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>Terri</t>
+          <t>Nagui</t>
         </is>
       </c>
       <c r="S53" t="inlineStr">
@@ -3294,9 +3281,21 @@
       <c r="N54" t="inlineStr"/>
       <c r="O54" t="inlineStr"/>
       <c r="P54" t="inlineStr"/>
-      <c r="Q54" t="inlineStr"/>
-      <c r="R54" t="inlineStr"/>
-      <c r="S54" t="inlineStr"/>
+      <c r="Q54" t="inlineStr">
+        <is>
+          <t>14)</t>
+        </is>
+      </c>
+      <c r="R54" t="inlineStr">
+        <is>
+          <t>Taya</t>
+        </is>
+      </c>
+      <c r="S54" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T54" t="inlineStr"/>
       <c r="U54" t="inlineStr"/>
       <c r="V54" t="inlineStr"/>
@@ -3333,9 +3332,21 @@
         </is>
       </c>
       <c r="P55" t="inlineStr"/>
-      <c r="Q55" t="inlineStr"/>
-      <c r="R55" t="inlineStr"/>
-      <c r="S55" t="inlineStr"/>
+      <c r="Q55" t="inlineStr">
+        <is>
+          <t>15)</t>
+        </is>
+      </c>
+      <c r="R55" t="inlineStr">
+        <is>
+          <t>Terri</t>
+        </is>
+      </c>
+      <c r="S55" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T55" t="inlineStr"/>
       <c r="U55" t="inlineStr"/>
       <c r="V55" t="inlineStr"/>
@@ -3374,11 +3385,7 @@
       </c>
       <c r="P56" t="inlineStr"/>
       <c r="Q56" t="inlineStr"/>
-      <c r="R56" t="inlineStr">
-        <is>
-          <t>6:30 AM MEET WATERTOWN PLANK</t>
-        </is>
-      </c>
+      <c r="R56" t="inlineStr"/>
       <c r="S56" t="inlineStr"/>
       <c r="T56" t="inlineStr"/>
       <c r="U56" t="inlineStr"/>
@@ -3417,11 +3424,7 @@
       <c r="O57" t="inlineStr"/>
       <c r="P57" t="inlineStr"/>
       <c r="Q57" t="inlineStr"/>
-      <c r="R57" t="inlineStr">
-        <is>
-          <t>7:00 AM START</t>
-        </is>
-      </c>
+      <c r="R57" t="inlineStr"/>
       <c r="S57" t="inlineStr"/>
       <c r="T57" t="inlineStr"/>
       <c r="U57" t="inlineStr"/>
@@ -3454,7 +3457,7 @@
       <c r="Q58" t="inlineStr"/>
       <c r="R58" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>6:30 AM MEET WATERTOWN PLANK</t>
         </is>
       </c>
       <c r="S58" t="inlineStr"/>
@@ -3489,7 +3492,7 @@
       <c r="Q59" t="inlineStr"/>
       <c r="R59" t="inlineStr">
         <is>
-          <t>RAPID MART HARTFORD</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="S59" t="inlineStr"/>
@@ -3524,7 +3527,7 @@
       <c r="Q60" t="inlineStr"/>
       <c r="R60" t="inlineStr">
         <is>
-          <t>2712 E SUMNER ST</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="S60" t="inlineStr"/>
@@ -3559,7 +3562,7 @@
       <c r="Q61" t="inlineStr"/>
       <c r="R61" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/5dpExsTUAgz</t>
+          <t>RAPID MART HARTFORD</t>
         </is>
       </c>
       <c r="S61" t="inlineStr"/>
@@ -3592,7 +3595,11 @@
       <c r="O62" t="inlineStr"/>
       <c r="P62" t="inlineStr"/>
       <c r="Q62" t="inlineStr"/>
-      <c r="R62" t="inlineStr"/>
+      <c r="R62" t="inlineStr">
+        <is>
+          <t>2712 E SUMNER ST</t>
+        </is>
+      </c>
       <c r="S62" t="inlineStr"/>
       <c r="T62" t="inlineStr"/>
       <c r="U62" t="inlineStr"/>
@@ -3618,22 +3625,13 @@
       <c r="N63" t="inlineStr"/>
       <c r="O63" t="inlineStr"/>
       <c r="P63" t="inlineStr"/>
-      <c r="Q63" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="Q63" t="inlineStr"/>
       <c r="R63" t="inlineStr">
         <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="S63" t="inlineStr">
-        <is>
-          <t>Driver,
-Altima, Equip</t>
-        </is>
-      </c>
+          <t>https://goo.gl/maps/5dpExsTUAgz</t>
+        </is>
+      </c>
+      <c r="S63" t="inlineStr"/>
       <c r="T63" t="inlineStr"/>
       <c r="U63" t="inlineStr"/>
       <c r="V63" t="inlineStr"/>
@@ -3671,16 +3669,8 @@
       <c r="N64" t="inlineStr"/>
       <c r="O64" t="inlineStr"/>
       <c r="P64" t="inlineStr"/>
-      <c r="Q64" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="R64" t="inlineStr">
-        <is>
-          <t>Leyna</t>
-        </is>
-      </c>
+      <c r="Q64" t="inlineStr"/>
+      <c r="R64" t="inlineStr"/>
       <c r="S64" t="inlineStr"/>
       <c r="T64" t="inlineStr"/>
       <c r="U64" t="inlineStr"/>
@@ -3714,9 +3704,22 @@
       <c r="N65" t="inlineStr"/>
       <c r="O65" t="inlineStr"/>
       <c r="P65" t="inlineStr"/>
-      <c r="Q65" t="inlineStr"/>
-      <c r="R65" t="inlineStr"/>
-      <c r="S65" t="inlineStr"/>
+      <c r="Q65" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="R65" t="inlineStr">
+        <is>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="S65" t="inlineStr">
+        <is>
+          <t>Driver,
+Altima, Equip</t>
+        </is>
+      </c>
       <c r="T65" t="inlineStr"/>
       <c r="U65" t="inlineStr"/>
       <c r="V65" t="inlineStr"/>
@@ -3741,8 +3744,16 @@
       <c r="N66" t="inlineStr"/>
       <c r="O66" t="inlineStr"/>
       <c r="P66" t="inlineStr"/>
-      <c r="Q66" t="inlineStr"/>
-      <c r="R66" t="inlineStr"/>
+      <c r="Q66" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="R66" t="inlineStr">
+        <is>
+          <t>Leyna</t>
+        </is>
+      </c>
       <c r="S66" t="inlineStr"/>
       <c r="T66" t="inlineStr"/>
       <c r="U66" t="inlineStr"/>
@@ -3769,11 +3780,7 @@
       <c r="O67" t="inlineStr"/>
       <c r="P67" t="inlineStr"/>
       <c r="Q67" t="inlineStr"/>
-      <c r="R67" t="inlineStr">
-        <is>
-          <t>Office</t>
-        </is>
-      </c>
+      <c r="R67" t="inlineStr"/>
       <c r="S67" t="inlineStr"/>
       <c r="T67" t="inlineStr"/>
       <c r="U67" t="inlineStr"/>
@@ -3800,11 +3807,7 @@
       <c r="O68" t="inlineStr"/>
       <c r="P68" t="inlineStr"/>
       <c r="Q68" t="inlineStr"/>
-      <c r="R68" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
+      <c r="R68" t="inlineStr"/>
       <c r="S68" t="inlineStr"/>
       <c r="T68" t="inlineStr"/>
       <c r="U68" t="inlineStr"/>
@@ -3813,6 +3816,68 @@
       <c r="X68" t="inlineStr"/>
       <c r="Y68" t="inlineStr"/>
     </row>
+    <row r="69">
+      <c r="A69" t="inlineStr"/>
+      <c r="B69" t="inlineStr"/>
+      <c r="C69" t="inlineStr"/>
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="inlineStr"/>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="inlineStr"/>
+      <c r="O69" t="inlineStr"/>
+      <c r="P69" t="inlineStr"/>
+      <c r="Q69" t="inlineStr"/>
+      <c r="R69" t="inlineStr">
+        <is>
+          <t>Office</t>
+        </is>
+      </c>
+      <c r="S69" t="inlineStr"/>
+      <c r="T69" t="inlineStr"/>
+      <c r="U69" t="inlineStr"/>
+      <c r="V69" t="inlineStr"/>
+      <c r="W69" t="inlineStr"/>
+      <c r="X69" t="inlineStr"/>
+      <c r="Y69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr"/>
+      <c r="B70" t="inlineStr"/>
+      <c r="C70" t="inlineStr"/>
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="inlineStr"/>
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="inlineStr"/>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="inlineStr"/>
+      <c r="O70" t="inlineStr"/>
+      <c r="P70" t="inlineStr"/>
+      <c r="Q70" t="inlineStr"/>
+      <c r="R70" t="inlineStr">
+        <is>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="S70" t="inlineStr"/>
+      <c r="T70" t="inlineStr"/>
+      <c r="U70" t="inlineStr"/>
+      <c r="V70" t="inlineStr"/>
+      <c r="W70" t="inlineStr"/>
+      <c r="X70" t="inlineStr"/>
+      <c r="Y70" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/04-27-25 to 05-03-25 Milwaukee Schedule.xlsx
+++ b/04-27-25 to 05-03-25 Milwaukee Schedule.xlsx
@@ -1578,7 +1578,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Justin Learned</t>
+          <t>Lexi</t>
         </is>
       </c>
       <c r="K21" t="inlineStr"/>
@@ -1662,7 +1662,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Lexi</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="K22" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="K23" t="inlineStr"/>
@@ -1797,7 +1797,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>NasZire</t>
         </is>
       </c>
       <c r="K24" t="inlineStr"/>
@@ -1860,7 +1860,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>NasZire</t>
+          <t>Pamela</t>
         </is>
       </c>
       <c r="K25" t="inlineStr"/>
@@ -1923,7 +1923,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Pamela</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="K26" t="inlineStr"/>
@@ -1982,7 +1982,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="K27" t="inlineStr"/>
@@ -2041,7 +2041,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="K28" t="inlineStr"/>
@@ -2094,16 +2094,8 @@
       </c>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>14)</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>Sydney</t>
-        </is>
-      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr"/>
@@ -2193,7 +2185,11 @@
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>7:00 AM START</t>
+        </is>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr"/>
@@ -2230,7 +2226,7 @@
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="K32" t="inlineStr"/>
@@ -2277,7 +2273,7 @@
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>CONCORD GENERAL STORE, OCONOMOWOC</t>
         </is>
       </c>
       <c r="K33" t="inlineStr"/>
@@ -2324,7 +2320,7 @@
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr">
         <is>
-          <t>CONCORD GENERAL STORE, OCONOMOWOC</t>
+          <t>N6485 COUNTY RD F</t>
         </is>
       </c>
       <c r="K34" t="inlineStr"/>
@@ -2367,7 +2363,7 @@
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr">
         <is>
-          <t>N6485 COUNTY RD F</t>
+          <t>https://goo.gl/maps/X4xEoL3zCRA2</t>
         </is>
       </c>
       <c r="K35" t="inlineStr"/>
@@ -2416,11 +2412,7 @@
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/X4xEoL3zCRA2</t>
-        </is>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr"/>
@@ -2466,9 +2458,21 @@
         </is>
       </c>
       <c r="H37" t="inlineStr"/>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>Optima available, Equip</t>
+        </is>
+      </c>
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr"/>
@@ -2514,21 +2518,9 @@
         </is>
       </c>
       <c r="H38" t="inlineStr"/>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>Optima available, Equip</t>
-        </is>
-      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr">

--- a/04-27-25 to 05-03-25 Milwaukee Schedule.xlsx
+++ b/04-27-25 to 05-03-25 Milwaukee Schedule.xlsx
@@ -1273,7 +1273,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>@ Store, Equip</t>
+          <t>Driver, Altima, Equip</t>
         </is>
       </c>
       <c r="P17" t="inlineStr"/>
@@ -1510,15 +1510,10 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>Jerry D</t>
-        </is>
-      </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>Driver,
-Optima</t>
-        </is>
-      </c>
+          <t>Monica</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr"/>
       <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -1590,10 +1585,14 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>Monica</t>
-        </is>
-      </c>
-      <c r="O21" t="inlineStr"/>
+          <t>Angela</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -1674,7 +1673,7 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>Angela</t>
+          <t>Anisha</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
@@ -1750,7 +1749,7 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>Anisha</t>
+          <t>Evelin</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
@@ -1809,7 +1808,7 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>Evelin</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
@@ -1872,7 +1871,7 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Nate</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
@@ -1928,21 +1927,9 @@
       </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>10)</t>
-        </is>
-      </c>
-      <c r="N26" t="inlineStr">
-        <is>
-          <t>Nate</t>
-        </is>
-      </c>
-      <c r="O26" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="inlineStr"/>
+      <c r="O26" t="inlineStr"/>
       <c r="P26" t="inlineStr"/>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr"/>
@@ -2047,7 +2034,11 @@
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr"/>
-      <c r="N28" t="inlineStr"/>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>6:00 AM START</t>
+        </is>
+      </c>
       <c r="O28" t="inlineStr"/>
       <c r="P28" t="inlineStr"/>
       <c r="Q28" t="inlineStr">
@@ -2101,7 +2092,7 @@
       <c r="M29" t="inlineStr"/>
       <c r="N29" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="O29" t="inlineStr"/>
@@ -2156,7 +2147,7 @@
       <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>AURORA OUTPATIENT RX #1060, WEST ALLIS</t>
         </is>
       </c>
       <c r="O30" t="inlineStr"/>
@@ -2195,7 +2186,7 @@
       <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1060, WEST ALLIS</t>
+          <t>2424 S 90TH ST</t>
         </is>
       </c>
       <c r="O31" t="inlineStr"/>
@@ -2234,7 +2225,7 @@
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr">
         <is>
-          <t>2424 S 90TH ST</t>
+          <t>https://goo.gl/maps/sV4GyYybfkL2</t>
         </is>
       </c>
       <c r="O32" t="inlineStr"/>
@@ -2279,11 +2270,7 @@
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr"/>
-      <c r="N33" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/sV4GyYybfkL2</t>
-        </is>
-      </c>
+      <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="inlineStr"/>
       <c r="Q33" t="inlineStr"/>
@@ -2325,9 +2312,21 @@
       </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
-      <c r="N34" t="inlineStr"/>
-      <c r="O34" t="inlineStr"/>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>Sante Fe available, Equip</t>
+        </is>
+      </c>
       <c r="P34" t="inlineStr"/>
       <c r="Q34" t="inlineStr"/>
       <c r="R34" t="inlineStr">
@@ -2368,21 +2367,9 @@
       </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N35" t="inlineStr">
-        <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="O35" t="inlineStr">
-        <is>
-          <t>Sante Fe available, Equip</t>
-        </is>
-      </c>
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="inlineStr"/>
+      <c r="O35" t="inlineStr"/>
       <c r="P35" t="inlineStr"/>
       <c r="Q35" t="inlineStr"/>
       <c r="R35" t="inlineStr">
@@ -2475,7 +2462,11 @@
       </c>
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr"/>
-      <c r="N37" t="inlineStr"/>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>6:00 AM START</t>
+        </is>
+      </c>
       <c r="O37" t="inlineStr"/>
       <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr"/>
@@ -2525,7 +2516,7 @@
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="O38" t="inlineStr"/>
@@ -2560,7 +2551,7 @@
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>AURORA OUTPATIENT RX #1085 MILWAUKEE</t>
         </is>
       </c>
       <c r="O39" t="inlineStr"/>
@@ -2608,7 +2599,7 @@
       <c r="M40" t="inlineStr"/>
       <c r="N40" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1085 MILWAUKEE</t>
+          <t>945 N 12TH ST</t>
         </is>
       </c>
       <c r="O40" t="inlineStr"/>
@@ -2651,7 +2642,7 @@
       <c r="M41" t="inlineStr"/>
       <c r="N41" t="inlineStr">
         <is>
-          <t>945 N 12TH ST</t>
+          <t>https://goo.gl/maps/ocvCohDG8tChEG7r9</t>
         </is>
       </c>
       <c r="O41" t="inlineStr"/>
@@ -2696,11 +2687,7 @@
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr"/>
-      <c r="N42" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/ocvCohDG8tChEG7r9</t>
-        </is>
-      </c>
+      <c r="N42" t="inlineStr"/>
       <c r="O42" t="inlineStr"/>
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr">
@@ -2742,9 +2729,21 @@
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
-      <c r="N43" t="inlineStr"/>
-      <c r="O43" t="inlineStr"/>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>White Camry available, Equip</t>
+        </is>
+      </c>
       <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr">
         <is>
@@ -2788,19 +2787,15 @@
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="O44" t="inlineStr">
-        <is>
-          <t>White Camry available, Equip</t>
-        </is>
-      </c>
+          <t>Sonia</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr"/>
       <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr">
         <is>
@@ -2841,16 +2836,8 @@
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="N45" t="inlineStr">
-        <is>
-          <t>Sonia</t>
-        </is>
-      </c>
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="inlineStr"/>
       <c r="O45" t="inlineStr"/>
       <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr">
@@ -2936,7 +2923,11 @@
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr"/>
-      <c r="N47" t="inlineStr"/>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>6:30 AM MEET RYAN RD PNR (HWY 100 &amp; 94)</t>
+        </is>
+      </c>
       <c r="O47" t="inlineStr"/>
       <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr">
@@ -2981,7 +2972,7 @@
       <c r="M48" t="inlineStr"/>
       <c r="N48" t="inlineStr">
         <is>
-          <t>6:30 AM MEET RYAN RD PNR (HWY 100 &amp; 94)</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="O48" t="inlineStr"/>
@@ -3028,7 +3019,7 @@
       <c r="M49" t="inlineStr"/>
       <c r="N49" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="O49" t="inlineStr"/>
@@ -3075,7 +3066,7 @@
       <c r="M50" t="inlineStr"/>
       <c r="N50" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>OPEN PANTRY #9570, RACINE</t>
         </is>
       </c>
       <c r="O50" t="inlineStr"/>
@@ -3122,7 +3113,7 @@
       <c r="M51" t="inlineStr"/>
       <c r="N51" t="inlineStr">
         <is>
-          <t>OPEN PANTRY #9570, RACINE</t>
+          <t>2731 DURAND AVE</t>
         </is>
       </c>
       <c r="O51" t="inlineStr"/>
@@ -3165,7 +3156,7 @@
       <c r="M52" t="inlineStr"/>
       <c r="N52" t="inlineStr">
         <is>
-          <t>2731 DURAND AVE</t>
+          <t>https://goo.gl/maps/boUkpED44a62</t>
         </is>
       </c>
       <c r="O52" t="inlineStr"/>
@@ -3219,11 +3210,7 @@
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr"/>
-      <c r="N53" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/boUkpED44a62</t>
-        </is>
-      </c>
+      <c r="N53" t="inlineStr"/>
       <c r="O53" t="inlineStr"/>
       <c r="P53" t="inlineStr"/>
       <c r="Q53" t="inlineStr">
@@ -3269,9 +3256,21 @@
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr"/>
-      <c r="N54" t="inlineStr"/>
-      <c r="O54" t="inlineStr"/>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="P54" t="inlineStr"/>
       <c r="Q54" t="inlineStr">
         <is>
@@ -3310,17 +3309,18 @@
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>Equip</t>
+          <t>Driver,
+Red Camry</t>
         </is>
       </c>
       <c r="P55" t="inlineStr"/>
@@ -3361,20 +3361,15 @@
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>Carlie</t>
-        </is>
-      </c>
-      <c r="O56" t="inlineStr">
-        <is>
-          <t>Driver,
-Red Camry</t>
-        </is>
-      </c>
+          <t>Leyna</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr"/>
       <c r="P56" t="inlineStr"/>
       <c r="Q56" t="inlineStr"/>
       <c r="R56" t="inlineStr"/>
@@ -3403,16 +3398,8 @@
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
-      <c r="N57" t="inlineStr">
-        <is>
-          <t>Leyna</t>
-        </is>
-      </c>
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="inlineStr"/>
       <c r="O57" t="inlineStr"/>
       <c r="P57" t="inlineStr"/>
       <c r="Q57" t="inlineStr"/>

--- a/04-27-25 to 05-03-25 Milwaukee Schedule.xlsx
+++ b/04-27-25 to 05-03-25 Milwaukee Schedule.xlsx
@@ -2054,7 +2054,7 @@
       <c r="S28" t="inlineStr">
         <is>
           <t>Driver,
-Optima</t>
+Sante Fe</t>
         </is>
       </c>
       <c r="T28" t="inlineStr"/>

--- a/04-27-25 to 05-03-25 Milwaukee Schedule.xlsx
+++ b/04-27-25 to 05-03-25 Milwaukee Schedule.xlsx
@@ -1292,7 +1292,7 @@
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>Brenda</t>
+          <t>Caitlin</t>
         </is>
       </c>
       <c r="W17" t="inlineStr"/>
@@ -1378,10 +1378,15 @@
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>Caitlin</t>
-        </is>
-      </c>
-      <c r="W18" t="inlineStr"/>
+          <t>Carlie</t>
+        </is>
+      </c>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t>Driver,
+Red Camry</t>
+        </is>
+      </c>
       <c r="X18" t="inlineStr"/>
       <c r="Y18" t="inlineStr"/>
     </row>
@@ -1449,15 +1454,10 @@
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>Carlie</t>
-        </is>
-      </c>
-      <c r="W19" t="inlineStr">
-        <is>
-          <t>Driver,
-Red Camry</t>
-        </is>
-      </c>
+          <t>Greg</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr"/>
       <c r="X19" t="inlineStr"/>
       <c r="Y19" t="inlineStr"/>
     </row>
@@ -1530,10 +1530,15 @@
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>Greg</t>
-        </is>
-      </c>
-      <c r="W20" t="inlineStr"/>
+          <t>Jerry D</t>
+        </is>
+      </c>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>Driver,
+Optima</t>
+        </is>
+      </c>
       <c r="X20" t="inlineStr"/>
       <c r="Y20" t="inlineStr"/>
     </row>
@@ -1609,13 +1614,13 @@
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="W21" t="inlineStr">
         <is>
           <t>Driver,
-Optima</t>
+White Camry</t>
         </is>
       </c>
       <c r="X21" t="inlineStr"/>
@@ -1697,15 +1702,10 @@
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="W22" t="inlineStr">
-        <is>
-          <t>Driver,
-White Camry</t>
-        </is>
-      </c>
+          <t>Lexi</t>
+        </is>
+      </c>
+      <c r="W22" t="inlineStr"/>
       <c r="X22" t="inlineStr"/>
       <c r="Y22" t="inlineStr"/>
     </row>
@@ -1773,7 +1773,7 @@
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>Lexi</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="W23" t="inlineStr"/>
@@ -1832,7 +1832,7 @@
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>NasZire</t>
         </is>
       </c>
       <c r="W24" t="inlineStr"/>
@@ -1895,7 +1895,7 @@
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>NasZire</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="W25" t="inlineStr"/>
@@ -1942,7 +1942,7 @@
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="W26" t="inlineStr"/>
@@ -2001,7 +2001,7 @@
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="W27" t="inlineStr"/>
@@ -2065,10 +2065,14 @@
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>Sydney</t>
-        </is>
-      </c>
-      <c r="W28" t="inlineStr"/>
+          <t>Brianna</t>
+        </is>
+      </c>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X28" t="inlineStr"/>
       <c r="Y28" t="inlineStr"/>
     </row>
@@ -2109,21 +2113,9 @@
       </c>
       <c r="S29" t="inlineStr"/>
       <c r="T29" t="inlineStr"/>
-      <c r="U29" t="inlineStr">
-        <is>
-          <t>14)</t>
-        </is>
-      </c>
-      <c r="V29" t="inlineStr">
-        <is>
-          <t>Brianna</t>
-        </is>
-      </c>
-      <c r="W29" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="U29" t="inlineStr"/>
+      <c r="V29" t="inlineStr"/>
+      <c r="W29" t="inlineStr"/>
       <c r="X29" t="inlineStr"/>
       <c r="Y29" t="inlineStr"/>
     </row>
@@ -2196,7 +2188,11 @@
       <c r="S31" t="inlineStr"/>
       <c r="T31" t="inlineStr"/>
       <c r="U31" t="inlineStr"/>
-      <c r="V31" t="inlineStr"/>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>5:30 AM MEET RYAN RD PNR (HWY 100 &amp; 94)</t>
+        </is>
+      </c>
       <c r="W31" t="inlineStr"/>
       <c r="X31" t="inlineStr"/>
       <c r="Y31" t="inlineStr"/>
@@ -2241,7 +2237,7 @@
       <c r="U32" t="inlineStr"/>
       <c r="V32" t="inlineStr">
         <is>
-          <t>5:30 AM MEET RYAN RD PNR (HWY 100 &amp; 94)</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="W32" t="inlineStr"/>
@@ -2284,7 +2280,7 @@
       <c r="U33" t="inlineStr"/>
       <c r="V33" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="W33" t="inlineStr"/>
@@ -2339,7 +2335,7 @@
       <c r="U34" t="inlineStr"/>
       <c r="V34" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>AURORA OUTPATIENT RX #1070, RACINE</t>
         </is>
       </c>
       <c r="W34" t="inlineStr"/>
@@ -2382,7 +2378,7 @@
       <c r="U35" t="inlineStr"/>
       <c r="V35" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1070, RACINE</t>
+          <t>8400 WASHINGTON AVENUE</t>
         </is>
       </c>
       <c r="W35" t="inlineStr"/>
@@ -2417,7 +2413,7 @@
       <c r="U36" t="inlineStr"/>
       <c r="V36" t="inlineStr">
         <is>
-          <t>8400 WASHINGTON AVENUE</t>
+          <t>https://goo.gl/maps/WsqKM5J2Bo42</t>
         </is>
       </c>
       <c r="W36" t="inlineStr"/>
@@ -2478,11 +2474,7 @@
       <c r="S37" t="inlineStr"/>
       <c r="T37" t="inlineStr"/>
       <c r="U37" t="inlineStr"/>
-      <c r="V37" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/WsqKM5J2Bo42</t>
-        </is>
-      </c>
+      <c r="V37" t="inlineStr"/>
       <c r="W37" t="inlineStr"/>
       <c r="X37" t="inlineStr"/>
       <c r="Y37" t="inlineStr"/>
@@ -2529,9 +2521,22 @@
       </c>
       <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr"/>
-      <c r="U38" t="inlineStr"/>
-      <c r="V38" t="inlineStr"/>
-      <c r="W38" t="inlineStr"/>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>Driver,
+Sante Fe, Equip</t>
+        </is>
+      </c>
       <c r="X38" t="inlineStr"/>
       <c r="Y38" t="inlineStr"/>
     </row>
@@ -2566,20 +2571,15 @@
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="W39" t="inlineStr">
-        <is>
-          <t>Driver,
-Sante Fe, Equip</t>
-        </is>
-      </c>
+          <t>Leyna</t>
+        </is>
+      </c>
+      <c r="W39" t="inlineStr"/>
       <c r="X39" t="inlineStr"/>
       <c r="Y39" t="inlineStr"/>
     </row>
@@ -2608,16 +2608,8 @@
       <c r="R40" t="inlineStr"/>
       <c r="S40" t="inlineStr"/>
       <c r="T40" t="inlineStr"/>
-      <c r="U40" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="V40" t="inlineStr">
-        <is>
-          <t>Leyna</t>
-        </is>
-      </c>
+      <c r="U40" t="inlineStr"/>
+      <c r="V40" t="inlineStr"/>
       <c r="W40" t="inlineStr"/>
       <c r="X40" t="inlineStr"/>
       <c r="Y40" t="inlineStr"/>
